--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_VOC.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_VOC.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_VOC</t>
+  </si>
+  <si>
+    <t>02_taxi_VOC</t>
+  </si>
+  <si>
+    <t>03_van_VOC</t>
+  </si>
+  <si>
+    <t>04_bus_VOC</t>
+  </si>
+  <si>
+    <t>05_LightTruck_VOC</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_VOC</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_VOC</t>
+  </si>
+  <si>
+    <t>Total_VOC (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1302 +397,1423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_VOC</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_VOC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_VOC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_VOC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_VOC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_VOC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_VOC (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>683.2407031088385</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.009238668377256029</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.009975510792453936</v>
+      </c>
+      <c r="D2">
         <v>6.841653445120074</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>3.469659594542361</v>
+      </c>
+      <c r="F2">
         <v>3.231590776084636</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>67.30104738177732</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.3863852083738238</v>
       </c>
-      <c r="H2" t="n">
-        <v>761.0106185885717</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>764.481015025529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>594.9235842337009</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.02111695629087092</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.02280116752560899</v>
+      </c>
+      <c r="D3">
         <v>3.383235220114325</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>2.487680464011504</v>
+      </c>
+      <c r="F3">
         <v>3.860304934855965</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>54.0885718221646</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.3348671805906473</v>
       </c>
-      <c r="H3" t="n">
-        <v>656.6116803477173</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>659.1010450229636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>635.2573865546301</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.02045705140678121</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.02208863104043372</v>
+      </c>
+      <c r="D4">
         <v>5.939457386422923</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>2.684076290117675</v>
+      </c>
+      <c r="F4">
         <v>3.206442209733784</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>58.21747043454358</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.4121442222654122</v>
       </c>
-      <c r="H4" t="n">
-        <v>703.0533578590025</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>705.7390657287539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>585.883249230734</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0141879550079289</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.01531953443126854</v>
+      </c>
+      <c r="D5">
         <v>4.661346303268624</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>2.749541565486401</v>
+      </c>
+      <c r="F5">
         <v>2.703470882716718</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>55.3272414058783</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.4636622500485886</v>
       </c>
-      <c r="H5" t="n">
-        <v>649.0531580276543</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>651.8038311725639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>605.7024451987768</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.01616766966019805</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.01745714388679439</v>
+      </c>
+      <c r="D6">
         <v>7.142385464685792</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>2.749541565486401</v>
+      </c>
+      <c r="F6">
         <v>3.281887908786342</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>48.72100362607195</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.4379032361570004</v>
       </c>
-      <c r="H6" t="n">
-        <v>665.301793104138</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>668.0526241438511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>624.1308203971322</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.01517781233406347</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.01638833915903146</v>
+      </c>
+      <c r="D7">
         <v>7.067202459794366</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>2.291284637905332</v>
+      </c>
+      <c r="F7">
         <v>3.395056457365182</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>56.56591098959198</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.5409392917233534</v>
       </c>
-      <c r="H7" t="n">
-        <v>691.7151074079411</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>694.0076025726713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>662.0306863711083</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.01583771721815318</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.01710087564420674</v>
+      </c>
+      <c r="D8">
         <v>7.217568469577224</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>1.963958261061715</v>
+      </c>
+      <c r="F8">
         <v>3.432779306891462</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>32.20540917655602</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.5924573195065301</v>
       </c>
-      <c r="H8" t="n">
-        <v>705.4947383608577</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>707.4599597803456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>774.6871687157718</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.01352805012383918</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.01460699794609326</v>
+      </c>
+      <c r="D9">
         <v>8.495679552731522</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>2.749541565486401</v>
+      </c>
+      <c r="F9">
         <v>3.269313625610917</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>32.20540917655602</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.4636622500485886</v>
       </c>
-      <c r="H9" t="n">
-        <v>819.1347613708427</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>821.8853818841515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>877.2602004802035</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.01286814523974946</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.01389446146091798</v>
+      </c>
+      <c r="D10">
         <v>5.864274381531493</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>4.648034551179389</v>
+      </c>
+      <c r="F10">
         <v>2.213073838875082</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>17.75426403322961</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.7470114028560594</v>
       </c>
-      <c r="H10" t="n">
-        <v>903.8516922819354</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>908.500753149336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>884.2143043286391</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.01253819279770461</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.01353819321833034</v>
+      </c>
+      <c r="D11">
         <v>5.18762733750863</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>4.648034551179389</v>
+      </c>
+      <c r="F11">
         <v>1.798122494086004</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>3.716008751141077</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.3091081666990592</v>
       </c>
-      <c r="H11" t="n">
-        <v>895.2377092708715</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>899.8867438224715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>664.4646227180613</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.005939143956807446</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.006412828366577532</v>
+      </c>
+      <c r="D12">
         <v>3.683967239680041</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>4.255242898967046</v>
+      </c>
+      <c r="F12">
         <v>1.21970546801638</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>7.432017502282155</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H12" t="n">
-        <v>676.8835291136713</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>681.1392456970482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>543.8109209476963</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.008908715935211168</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.009619242549866295</v>
+      </c>
+      <c r="D13">
         <v>2.481039161417171</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>4.778965101916838</v>
+      </c>
+      <c r="F13">
         <v>0.7418827073501693</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>7.01912764104426</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H13" t="n">
-        <v>554.139156215118</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>558.9188318436494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>397.7747401305402</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.00494928663067287</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.00534402363881461</v>
+      </c>
+      <c r="D14">
         <v>2.105124136960024</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>3.60059014527981</v>
+      </c>
+      <c r="F14">
         <v>0.6664370082976099</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>3.716008751141077</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H14" t="n">
-        <v>404.3187773413528</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>407.9197622236407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>279.5549747071279</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.005939143956807446</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.006412828366577532</v>
+      </c>
+      <c r="D15">
         <v>1.052562068480012</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>1.833027710324267</v>
+      </c>
+      <c r="F15">
         <v>0.3646542120873714</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>7.844907363520059</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H15" t="n">
-        <v>288.8745555229553</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>290.7080569176894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>166.5507871700425</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.006929001282942019</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.007481633094340453</v>
+      </c>
+      <c r="D16">
         <v>0.902196058697153</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.7855833044246857</v>
+      </c>
+      <c r="F16">
         <v>0.3269313625610916</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>4.954678334854774</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H16" t="n">
-        <v>172.7930399552216</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>173.5791758914577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>122.7399329248957</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.01088843058748032</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.01175685200539214</v>
+      </c>
+      <c r="D17">
         <v>0.07518300489142943</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.3927916522123429</v>
+      </c>
+      <c r="F17">
         <v>0.5155456101924907</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>6.606237779806365</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>129.9477877503734</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>130.3414478240037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>71.62726963889094</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.007918858609076592</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.008550437822103372</v>
+      </c>
+      <c r="D18">
         <v>0.07518300489142943</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.2618611014748952</v>
+      </c>
+      <c r="F18">
         <v>0.4023770616136512</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>6.193347918568467</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H18" t="n">
-        <v>78.33185549646514</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>78.59434817715307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>54.93742040264453</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.01121838302952517</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.01211312024797978</v>
+      </c>
+      <c r="D19">
         <v>0.6014640391314354</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.06546527536872379</v>
+      </c>
+      <c r="F19">
         <v>0.2640599466839585</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>8.257797224757951</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>64.0719599962474</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>64.13832000883458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>68.15021771467295</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.005939143956807446</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.006412828366577532</v>
+      </c>
+      <c r="D20">
         <v>0.4510980293485765</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.5891874783185143</v>
+      </c>
+      <c r="F20">
         <v>0.3269313625610916</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>7.01912764104426</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H20" t="n">
-        <v>75.97907290547528</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>76.56873406820355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>100.4868006099004</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.00164976221022429</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.001781341212938203</v>
+      </c>
+      <c r="D21">
         <v>0.9773790635885824</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.3273263768436192</v>
+      </c>
+      <c r="F21">
         <v>0.6035655924204769</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>11.97380597589904</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H21" t="n">
-        <v>114.0689600179103</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>114.3964179737566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>266.3421773950993</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.003299524420448581</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.003562682425876405</v>
+      </c>
+      <c r="D22">
         <v>1.954758127177165</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>2.356749913274057</v>
+      </c>
+      <c r="F22">
         <v>1.29515116706894</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>18.5800437557054</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H22" t="n">
-        <v>288.2269479972545</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>290.5839610685339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>437.0654268742034</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.007258953724986878</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.007837901336928093</v>
+      </c>
+      <c r="D23">
         <v>3.90951625435433</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>5.760944232447693</v>
+      </c>
+      <c r="F23">
         <v>2.288519537927641</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>24.77339167427387</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.3348671805906473</v>
       </c>
-      <c r="H23" t="n">
-        <v>468.3789804750749</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>474.1405036551345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>734.7010715872648</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.007258953724986878</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.007837901336928093</v>
+      </c>
+      <c r="D24">
         <v>6.390555415771501</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>7.266645565928344</v>
+      </c>
+      <c r="F24">
         <v>2.879510847172691</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>47.06944418112035</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.6697343611812946</v>
       </c>
-      <c r="H24" t="n">
-        <v>791.7175753462357</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>798.984799859776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>844.923617584975</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.006599048840897162</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.007125364851752811</v>
+      </c>
+      <c r="D25">
         <v>5.864274381531493</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>4.058847072860877</v>
+      </c>
+      <c r="F25">
         <v>2.389113803331053</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>27.25073084170126</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.3606261944822355</v>
       </c>
-      <c r="H25" t="n">
-        <v>880.794961854862</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>884.8543352437337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>683.2407031088385</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.009238668377256029</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.009975510792453936</v>
+      </c>
+      <c r="D26">
         <v>6.841653445120074</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>3.469659594542361</v>
+      </c>
+      <c r="F26">
         <v>3.231590776084636</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>67.30104738177732</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.3863852083738238</v>
       </c>
-      <c r="H26" t="n">
-        <v>761.0106185885717</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>764.481015025529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>587.6217751928434</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.0181473843124672</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.01959475334232023</v>
+      </c>
+      <c r="D27">
         <v>6.165006401097214</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>2.684076290117675</v>
+      </c>
+      <c r="F27">
         <v>3.784859235803407</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>60.69480960197098</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.5666983056149417</v>
       </c>
-      <c r="H27" t="n">
-        <v>658.8512961216425</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>661.53681978079</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>618.9152425108051</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.01682757454428776</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.01816968037196966</v>
+      </c>
+      <c r="D28">
         <v>5.864274381531493</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>3.796985971385981</v>
+      </c>
+      <c r="F28">
         <v>3.118422227505797</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>70.60416627168054</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.5924573195065301</v>
       </c>
-      <c r="H28" t="n">
-        <v>699.1113902855737</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>702.9097183627874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>616.8290113562743</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.01550776477610833</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.0167446074016191</v>
+      </c>
+      <c r="D29">
         <v>4.962078322834342</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>2.553145739380228</v>
+      </c>
+      <c r="F29">
         <v>2.854362280821838</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>52.84990223845092</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.3606261944822355</v>
       </c>
-      <c r="H29" t="n">
-        <v>677.8714881576399</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>680.4258707396457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>652.6426461757203</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.01616766966019805</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.01745714388679439</v>
+      </c>
+      <c r="D30">
         <v>4.811712313051483</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>3.011402666961295</v>
+      </c>
+      <c r="F30">
         <v>3.558522138645727</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>43.76632529121712</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.5409392917233534</v>
       </c>
-      <c r="H30" t="n">
-        <v>705.336312880018</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>708.3490050212059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>629.3463982834592</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.01286814523974946</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.01389446146091798</v>
+      </c>
+      <c r="D31">
         <v>6.841653445120074</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>2.749541565486401</v>
+      </c>
+      <c r="F31">
         <v>3.369907891014329</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>41.70187598502766</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.6182163333981183</v>
       </c>
-      <c r="H31" t="n">
-        <v>681.8909200832591</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>684.6414879649667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>666.5508538725924</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.01484785989201861</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.01603207091644383</v>
+      </c>
+      <c r="D32">
         <v>6.76647044022865</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>2.880472116223847</v>
+      </c>
+      <c r="F32">
         <v>3.281887908786342</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>41.28898612378979</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.3606261944822355</v>
       </c>
-      <c r="H32" t="n">
-        <v>718.2636723997714</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>721.1453287270197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>774.6871687157718</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.01352805012383918</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.01460699794609326</v>
+      </c>
+      <c r="D33">
         <v>8.495679552731522</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>2.749541565486401</v>
+      </c>
+      <c r="F33">
         <v>3.269313625610917</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>32.20540917655602</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.4636622500485886</v>
       </c>
-      <c r="H33" t="n">
-        <v>819.1347613708427</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>821.8853818841515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>877.2602004802035</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.01286814523974946</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.01389446146091798</v>
+      </c>
+      <c r="D34">
         <v>5.864274381531493</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>4.648034551179389</v>
+      </c>
+      <c r="F34">
         <v>2.213073838875082</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>17.75426403322961</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.7470114028560594</v>
       </c>
-      <c r="H34" t="n">
-        <v>903.8516922819354</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>908.500753149336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>884.2143043286391</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.01253819279770461</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.01353819321833034</v>
+      </c>
+      <c r="D35">
         <v>5.18762733750863</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>4.648034551179389</v>
+      </c>
+      <c r="F35">
         <v>1.798122494086004</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>3.716008751141077</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.3091081666990592</v>
       </c>
-      <c r="H35" t="n">
-        <v>895.2377092708715</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>899.8867438224715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>664.4646227180613</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.005939143956807446</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.006412828366577532</v>
+      </c>
+      <c r="D36">
         <v>3.683967239680041</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>4.255242898967046</v>
+      </c>
+      <c r="F36">
         <v>1.21970546801638</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>7.432017502282155</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H36" t="n">
-        <v>676.8835291136713</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>681.1392456970482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>543.8109209476963</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.008908715935211168</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.009619242549866295</v>
+      </c>
+      <c r="D37">
         <v>2.481039161417171</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>4.778965101916838</v>
+      </c>
+      <c r="F37">
         <v>0.7418827073501693</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>7.01912764104426</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H37" t="n">
-        <v>554.139156215118</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>558.9188318436494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>397.7747401305402</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.00494928663067287</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.00534402363881461</v>
+      </c>
+      <c r="D38">
         <v>2.105124136960024</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>3.60059014527981</v>
+      </c>
+      <c r="F38">
         <v>0.6664370082976099</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>3.716008751141077</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H38" t="n">
-        <v>404.3187773413528</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>407.9197622236407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>279.5549747071279</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.005939143956807446</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.006412828366577532</v>
+      </c>
+      <c r="D39">
         <v>1.052562068480012</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>1.833027710324267</v>
+      </c>
+      <c r="F39">
         <v>0.3646542120873714</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>7.844907363520059</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H39" t="n">
-        <v>288.8745555229553</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>290.7080569176894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>166.5507871700425</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.006929001282942019</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.007481633094340453</v>
+      </c>
+      <c r="D40">
         <v>0.902196058697153</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.7855833044246857</v>
+      </c>
+      <c r="F40">
         <v>0.3269313625610916</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>4.954678334854774</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H40" t="n">
-        <v>172.7930399552216</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>173.5791758914577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>122.7399329248957</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.01088843058748032</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.01175685200539214</v>
+      </c>
+      <c r="D41">
         <v>0.07518300489142943</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.3927916522123429</v>
+      </c>
+      <c r="F41">
         <v>0.5155456101924907</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>6.606237779806365</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>129.9477877503734</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>130.3414478240037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>71.62726963889094</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.007918858609076592</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.008550437822103372</v>
+      </c>
+      <c r="D42">
         <v>0.07518300489142943</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.2618611014748952</v>
+      </c>
+      <c r="F42">
         <v>0.4023770616136512</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>6.193347918568467</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H42" t="n">
-        <v>78.33185549646514</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>78.59434817715307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>54.93742040264453</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.01121838302952517</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.01211312024797978</v>
+      </c>
+      <c r="D43">
         <v>0.6014640391314354</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.06546527536872379</v>
+      </c>
+      <c r="F43">
         <v>0.2640599466839585</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>8.257797224757951</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>64.0719599962474</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>64.13832000883458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>68.15021771467295</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.005939143956807446</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.006412828366577532</v>
+      </c>
+      <c r="D44">
         <v>0.4510980293485765</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.5891874783185143</v>
+      </c>
+      <c r="F44">
         <v>0.3269313625610916</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>7.01912764104426</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H44" t="n">
-        <v>75.97907290547528</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>76.56873406820355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>100.4868006099004</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.00164976221022429</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.001781341212938203</v>
+      </c>
+      <c r="D45">
         <v>0.9773790635885824</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.3273263768436192</v>
+      </c>
+      <c r="F45">
         <v>0.6035655924204769</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>11.97380597589904</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H45" t="n">
-        <v>114.0689600179103</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>114.3964179737566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>266.3421773950993</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.003299524420448581</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.003562682425876405</v>
+      </c>
+      <c r="D46">
         <v>1.954758127177165</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>2.356749913274057</v>
+      </c>
+      <c r="F46">
         <v>1.29515116706894</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>18.5800437557054</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H46" t="n">
-        <v>288.2269479972545</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>290.5839610685339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>437.0654268742034</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.007258953724986878</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.007837901336928093</v>
+      </c>
+      <c r="D47">
         <v>3.90951625435433</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>5.760944232447693</v>
+      </c>
+      <c r="F47">
         <v>2.288519537927641</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>24.77339167427387</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.3348671805906473</v>
       </c>
-      <c r="H47" t="n">
-        <v>468.3789804750749</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>474.1405036551345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>734.7010715872648</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.007258953724986878</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.007837901336928093</v>
+      </c>
+      <c r="D48">
         <v>6.390555415771501</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>7.266645565928344</v>
+      </c>
+      <c r="F48">
         <v>2.879510847172691</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>47.06944418112035</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.6697343611812946</v>
       </c>
-      <c r="H48" t="n">
-        <v>791.7175753462357</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>798.984799859776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>844.923617584975</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.006599048840897162</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.007125364851752811</v>
+      </c>
+      <c r="D49">
         <v>5.864274381531493</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>4.058847072860877</v>
+      </c>
+      <c r="F49">
         <v>2.389113803331053</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>27.25073084170126</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.3606261944822355</v>
       </c>
-      <c r="H49" t="n">
-        <v>880.794961854862</v>
+      <c r="I49">
+        <v>884.8543352437337</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_VOC.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>683.2407031088385</v>
+        <v>2101.679577243538</v>
       </c>
       <c r="C2">
-        <v>0.009975510792453936</v>
+        <v>0.03068512635397427</v>
       </c>
       <c r="D2">
-        <v>6.841653445120074</v>
+        <v>21.04523816388647</v>
       </c>
       <c r="E2">
-        <v>3.469659594542361</v>
+        <v>10.67283122427669</v>
       </c>
       <c r="F2">
-        <v>3.231590776084636</v>
+        <v>9.940520676245134</v>
       </c>
       <c r="G2">
-        <v>67.30104738177732</v>
+        <v>207.0210925165698</v>
       </c>
       <c r="H2">
-        <v>0.3863852083738238</v>
+        <v>1.18853853070123</v>
       </c>
       <c r="I2">
-        <v>764.481015025529</v>
+        <v>2351.578483481571</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>594.9235842337009</v>
+        <v>1830.012089905186</v>
       </c>
       <c r="C3">
-        <v>0.02280116752560899</v>
+        <v>0.07013743166622691</v>
       </c>
       <c r="D3">
-        <v>3.383235220114325</v>
+        <v>10.40698590521858</v>
       </c>
       <c r="E3">
-        <v>2.487680464011504</v>
+        <v>7.652218613632345</v>
       </c>
       <c r="F3">
-        <v>3.860304934855965</v>
+        <v>11.87447411520333</v>
       </c>
       <c r="G3">
-        <v>54.0885718221646</v>
+        <v>166.3789148446053</v>
       </c>
       <c r="H3">
-        <v>0.3348671805906473</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I3">
-        <v>659.1010450229636</v>
+        <v>2027.42488754212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>635.2573865546301</v>
+        <v>1954.080706169946</v>
       </c>
       <c r="C4">
-        <v>0.02208863104043372</v>
+        <v>0.06794563692665732</v>
       </c>
       <c r="D4">
-        <v>5.939457386422923</v>
+        <v>18.27004192249487</v>
       </c>
       <c r="E4">
-        <v>2.684076290117675</v>
+        <v>8.256341135761218</v>
       </c>
       <c r="F4">
-        <v>3.206442209733784</v>
+        <v>9.863162538686806</v>
       </c>
       <c r="G4">
-        <v>58.21747043454358</v>
+        <v>179.0795953670941</v>
       </c>
       <c r="H4">
-        <v>0.4121442222654122</v>
+        <v>1.267774432747979</v>
       </c>
       <c r="I4">
-        <v>705.7390657287539</v>
+        <v>2170.885567203658</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>585.883249230734</v>
+        <v>1802.203606949293</v>
       </c>
       <c r="C5">
-        <v>0.01531953443126854</v>
+        <v>0.04712358690074621</v>
       </c>
       <c r="D5">
-        <v>4.661346303268624</v>
+        <v>14.33851391385671</v>
       </c>
       <c r="E5">
-        <v>2.749541565486401</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F5">
-        <v>2.703470882716718</v>
+        <v>8.315999787520246</v>
       </c>
       <c r="G5">
-        <v>55.3272414058783</v>
+        <v>170.1891190013519</v>
       </c>
       <c r="H5">
-        <v>0.4636622500485886</v>
+        <v>1.426246236841476</v>
       </c>
       <c r="I5">
-        <v>651.8038311725639</v>
+        <v>2004.978324785568</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>605.7024451987768</v>
+        <v>1863.168358044906</v>
       </c>
       <c r="C6">
-        <v>0.01745714388679439</v>
+        <v>0.05369897111945499</v>
       </c>
       <c r="D6">
-        <v>7.142385464685792</v>
+        <v>21.97030357768368</v>
       </c>
       <c r="E6">
-        <v>2.749541565486401</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F6">
-        <v>3.281887908786342</v>
+        <v>10.09523695136179</v>
       </c>
       <c r="G6">
-        <v>48.72100362607195</v>
+        <v>149.8680301653696</v>
       </c>
       <c r="H6">
-        <v>0.4379032361570004</v>
+        <v>1.347010334794728</v>
       </c>
       <c r="I6">
-        <v>668.0526241438511</v>
+        <v>2054.960353355039</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>624.1308203971322</v>
+        <v>1919.85488099346</v>
       </c>
       <c r="C7">
-        <v>0.01638833915903146</v>
+        <v>0.05041127901010059</v>
       </c>
       <c r="D7">
-        <v>7.067202459794366</v>
+        <v>21.7390372242344</v>
       </c>
       <c r="E7">
-        <v>2.291284637905332</v>
+        <v>7.048096091503476</v>
       </c>
       <c r="F7">
-        <v>3.395056457365182</v>
+        <v>10.44334857037427</v>
       </c>
       <c r="G7">
-        <v>56.56591098959198</v>
+        <v>173.9993231580987</v>
       </c>
       <c r="H7">
-        <v>0.5409392917233534</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I7">
-        <v>694.0076025726713</v>
+        <v>2134.799051259663</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>662.0306863711083</v>
+        <v>2036.436598000862</v>
       </c>
       <c r="C8">
-        <v>0.01710087564420674</v>
+        <v>0.05260307374967019</v>
       </c>
       <c r="D8">
-        <v>7.217568469577224</v>
+        <v>22.20156993113299</v>
       </c>
       <c r="E8">
-        <v>1.963958261061715</v>
+        <v>6.041225221288696</v>
       </c>
       <c r="F8">
-        <v>3.432779306891462</v>
+        <v>10.55938577671176</v>
       </c>
       <c r="G8">
-        <v>32.20540917655602</v>
+        <v>99.0653080754138</v>
       </c>
       <c r="H8">
-        <v>0.5924573195065301</v>
+        <v>1.822425747075219</v>
       </c>
       <c r="I8">
-        <v>707.4599597803456</v>
+        <v>2176.179115826234</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>774.6871687157718</v>
+        <v>2382.973077912774</v>
       </c>
       <c r="C9">
-        <v>0.01460699794609326</v>
+        <v>0.04493179216117662</v>
       </c>
       <c r="D9">
-        <v>8.495679552731522</v>
+        <v>26.13309793977112</v>
       </c>
       <c r="E9">
-        <v>2.749541565486401</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F9">
-        <v>3.269313625610917</v>
+        <v>10.05655788258263</v>
       </c>
       <c r="G9">
-        <v>32.20540917655602</v>
+        <v>99.0653080754138</v>
       </c>
       <c r="H9">
-        <v>0.4636622500485886</v>
+        <v>1.426246236841476</v>
       </c>
       <c r="I9">
-        <v>821.8853818841515</v>
+        <v>2528.156935149348</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>877.2602004802035</v>
+        <v>2698.492403758497</v>
       </c>
       <c r="C10">
-        <v>0.01389446146091798</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D10">
-        <v>5.864274381531493</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E10">
-        <v>4.648034551179389</v>
+        <v>14.29756635704991</v>
       </c>
       <c r="F10">
-        <v>2.213073838875082</v>
+        <v>6.807516105132855</v>
       </c>
       <c r="G10">
-        <v>17.75426403322961</v>
+        <v>54.61292624670247</v>
       </c>
       <c r="H10">
-        <v>0.7470114028560594</v>
+        <v>2.297841159355712</v>
       </c>
       <c r="I10">
-        <v>908.500753149336</v>
+        <v>2794.589769193205</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>884.2143043286391</v>
+        <v>2719.883544493799</v>
       </c>
       <c r="C11">
-        <v>0.01353819321833034</v>
+        <v>0.04164410005182222</v>
       </c>
       <c r="D11">
-        <v>5.18762733750863</v>
+        <v>15.95737838800183</v>
       </c>
       <c r="E11">
-        <v>4.648034551179389</v>
+        <v>14.29756635704991</v>
       </c>
       <c r="F11">
-        <v>1.798122494086004</v>
+        <v>5.531106835420444</v>
       </c>
       <c r="G11">
-        <v>3.716008751141077</v>
+        <v>11.43061247024005</v>
       </c>
       <c r="H11">
-        <v>0.3091081666990592</v>
+        <v>0.9508308245609839</v>
       </c>
       <c r="I11">
-        <v>899.8867438224715</v>
+        <v>2768.092683469124</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>664.4646227180613</v>
+        <v>2043.923497258218</v>
       </c>
       <c r="C12">
-        <v>0.006412828366577532</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D12">
-        <v>3.683967239680041</v>
+        <v>11.33205131901579</v>
       </c>
       <c r="E12">
-        <v>4.255242898967046</v>
+        <v>13.08932131279217</v>
       </c>
       <c r="F12">
-        <v>1.21970546801638</v>
+        <v>3.751869671578905</v>
       </c>
       <c r="G12">
-        <v>7.432017502282155</v>
+        <v>22.86122494048011</v>
       </c>
       <c r="H12">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I12">
-        <v>681.1392456970482</v>
+        <v>2095.21539836088</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>543.8109209476963</v>
+        <v>1672.787205500709</v>
       </c>
       <c r="C13">
-        <v>0.009619242549866295</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D13">
-        <v>2.481039161417171</v>
+        <v>7.631789663826963</v>
       </c>
       <c r="E13">
-        <v>4.778965101916838</v>
+        <v>14.70031470513583</v>
       </c>
       <c r="F13">
-        <v>0.7418827073501693</v>
+        <v>2.282065057970673</v>
       </c>
       <c r="G13">
-        <v>7.01912764104426</v>
+        <v>21.59115688823121</v>
       </c>
       <c r="H13">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I13">
-        <v>558.9188318436494</v>
+        <v>1719.259828750998</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>397.7747401305402</v>
+        <v>1223.573250059341</v>
       </c>
       <c r="C14">
-        <v>0.00534402363881461</v>
+        <v>0.01643846054677193</v>
       </c>
       <c r="D14">
-        <v>2.105124136960024</v>
+        <v>6.475457896580451</v>
       </c>
       <c r="E14">
-        <v>3.60059014527981</v>
+        <v>11.07557957236261</v>
       </c>
       <c r="F14">
-        <v>0.6664370082976099</v>
+        <v>2.04999064529569</v>
       </c>
       <c r="G14">
-        <v>3.716008751141077</v>
+        <v>11.43061247024005</v>
       </c>
       <c r="H14">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I14">
-        <v>407.9197622236407</v>
+        <v>1254.779800908461</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>279.5549747071279</v>
+        <v>859.9238575591878</v>
       </c>
       <c r="C15">
-        <v>0.006412828366577532</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D15">
-        <v>1.052562068480012</v>
+        <v>3.237728948290226</v>
       </c>
       <c r="E15">
-        <v>1.833027710324267</v>
+        <v>5.638476873202784</v>
       </c>
       <c r="F15">
-        <v>0.3646542120873714</v>
+        <v>1.121692994595754</v>
       </c>
       <c r="G15">
-        <v>7.844907363520059</v>
+        <v>24.13129299272901</v>
       </c>
       <c r="H15">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I15">
-        <v>290.7080569176894</v>
+        <v>894.2312473247551</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>166.5507871700425</v>
+        <v>512.3178206105111</v>
       </c>
       <c r="C16">
-        <v>0.007481633094340453</v>
+        <v>0.02301384476548071</v>
       </c>
       <c r="D16">
-        <v>0.902196058697153</v>
+        <v>2.775196241391623</v>
       </c>
       <c r="E16">
-        <v>0.7855833044246857</v>
+        <v>2.416490088515477</v>
       </c>
       <c r="F16">
-        <v>0.3269313625610916</v>
+        <v>1.005655788258263</v>
       </c>
       <c r="G16">
-        <v>4.954678334854774</v>
+        <v>15.24081662698674</v>
       </c>
       <c r="H16">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I16">
-        <v>173.5791758914577</v>
+        <v>533.9374650045224</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>122.7399329248957</v>
+        <v>377.5536339781008</v>
       </c>
       <c r="C17">
-        <v>0.01175685200539214</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D17">
-        <v>0.07518300489142943</v>
+        <v>0.2312663534493019</v>
       </c>
       <c r="E17">
-        <v>0.3927916522123429</v>
+        <v>1.208245044257738</v>
       </c>
       <c r="F17">
-        <v>0.5155456101924907</v>
+        <v>1.585841819945722</v>
       </c>
       <c r="G17">
-        <v>6.606237779806365</v>
+        <v>20.32108883598231</v>
       </c>
       <c r="I17">
-        <v>130.3414478240037</v>
+        <v>400.9362406449388</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>71.62726963889094</v>
+        <v>220.3287495736228</v>
       </c>
       <c r="C18">
-        <v>0.008550437822103372</v>
+        <v>0.02630153687483509</v>
       </c>
       <c r="D18">
-        <v>0.07518300489142943</v>
+        <v>0.2312663534493019</v>
       </c>
       <c r="E18">
-        <v>0.2618611014748952</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F18">
-        <v>0.4023770616136512</v>
+        <v>1.237730200933247</v>
       </c>
       <c r="G18">
-        <v>6.193347918568467</v>
+        <v>19.05102078373343</v>
       </c>
       <c r="H18">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I18">
-        <v>78.59434817715307</v>
+        <v>241.7598010468321</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>54.93742040264453</v>
+        <v>168.9900118088951</v>
       </c>
       <c r="C19">
-        <v>0.01211312024797978</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D19">
-        <v>0.6014640391314354</v>
+        <v>1.850130827594415</v>
       </c>
       <c r="E19">
-        <v>0.06546527536872379</v>
+        <v>0.2013741740429565</v>
       </c>
       <c r="F19">
-        <v>0.2640599466839585</v>
+        <v>0.8122604443624428</v>
       </c>
       <c r="G19">
-        <v>8.257797224757951</v>
+        <v>25.4013610449779</v>
       </c>
       <c r="I19">
-        <v>64.13832000883458</v>
+        <v>197.2923988104455</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>68.15021771467295</v>
+        <v>209.6331792059711</v>
       </c>
       <c r="C20">
-        <v>0.006412828366577532</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D20">
-        <v>0.4510980293485765</v>
+        <v>1.387598120695812</v>
       </c>
       <c r="E20">
-        <v>0.5891874783185143</v>
+        <v>1.812367566386608</v>
       </c>
       <c r="F20">
-        <v>0.3269313625610916</v>
+        <v>1.005655788258263</v>
       </c>
       <c r="G20">
-        <v>7.01912764104426</v>
+        <v>21.59115688823121</v>
       </c>
       <c r="H20">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I20">
-        <v>76.56873406820355</v>
+        <v>235.5289196242459</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>100.4868006099004</v>
+        <v>309.1019836251309</v>
       </c>
       <c r="C21">
-        <v>0.001781341212938203</v>
+        <v>0.005479486848923978</v>
       </c>
       <c r="D21">
-        <v>0.9773790635885824</v>
+        <v>3.006462594840925</v>
       </c>
       <c r="E21">
-        <v>0.3273263768436192</v>
+        <v>1.006870870214782</v>
       </c>
       <c r="F21">
-        <v>0.6035655924204769</v>
+        <v>1.85659530139987</v>
       </c>
       <c r="G21">
-        <v>11.97380597589904</v>
+        <v>36.83197351521794</v>
       </c>
       <c r="H21">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I21">
-        <v>114.3964179737566</v>
+        <v>351.8886012957001</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>266.3421773950993</v>
+        <v>819.2806901621115</v>
       </c>
       <c r="C22">
-        <v>0.003562682425876405</v>
+        <v>0.01095897369784796</v>
       </c>
       <c r="D22">
-        <v>1.954758127177165</v>
+        <v>6.01292518968185</v>
       </c>
       <c r="E22">
-        <v>2.356749913274057</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F22">
-        <v>1.29515116706894</v>
+        <v>3.983944084253887</v>
       </c>
       <c r="G22">
-        <v>18.5800437557054</v>
+        <v>57.15306235120029</v>
       </c>
       <c r="H22">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I22">
-        <v>290.5839610685339</v>
+        <v>893.8495228305852</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>437.0654268742034</v>
+        <v>1344.433195213804</v>
       </c>
       <c r="C23">
-        <v>0.007837901336928093</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D23">
-        <v>3.90951625435433</v>
+        <v>12.0258503793637</v>
       </c>
       <c r="E23">
-        <v>5.760944232447693</v>
+        <v>17.72092731578017</v>
       </c>
       <c r="F23">
-        <v>2.288519537927641</v>
+        <v>7.039590517807842</v>
       </c>
       <c r="G23">
-        <v>24.77339167427387</v>
+        <v>76.20408313493373</v>
       </c>
       <c r="H23">
-        <v>0.3348671805906473</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I23">
-        <v>474.1405036551345</v>
+        <v>1458.477823030433</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>734.7010715872648</v>
+        <v>2259.97401868478</v>
       </c>
       <c r="C24">
-        <v>0.007837901336928093</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D24">
-        <v>6.390555415771501</v>
+        <v>19.65764004319066</v>
       </c>
       <c r="E24">
-        <v>7.266645565928344</v>
+        <v>22.35253331876817</v>
       </c>
       <c r="F24">
-        <v>2.879510847172691</v>
+        <v>8.857506750428545</v>
       </c>
       <c r="G24">
-        <v>47.06944418112035</v>
+        <v>144.787757956374</v>
       </c>
       <c r="H24">
-        <v>0.6697343611812946</v>
+        <v>2.060133453215465</v>
       </c>
       <c r="I24">
-        <v>798.984799859776</v>
+        <v>2457.713699948892</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>844.923617584975</v>
+        <v>2599.023599339336</v>
       </c>
       <c r="C25">
-        <v>0.007125364851752811</v>
+        <v>0.02191794739569591</v>
       </c>
       <c r="D25">
-        <v>5.864274381531493</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E25">
-        <v>4.058847072860877</v>
+        <v>12.4851987906633</v>
       </c>
       <c r="F25">
-        <v>2.389113803331053</v>
+        <v>7.34902306804115</v>
       </c>
       <c r="G25">
-        <v>27.25073084170126</v>
+        <v>83.82449144842708</v>
       </c>
       <c r="H25">
-        <v>0.3606261944822355</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I25">
-        <v>884.8543352437337</v>
+        <v>2721.852308791563</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>683.2407031088385</v>
+        <v>2101.679577243538</v>
       </c>
       <c r="C26">
-        <v>0.009975510792453936</v>
+        <v>0.03068512635397427</v>
       </c>
       <c r="D26">
-        <v>6.841653445120074</v>
+        <v>21.04523816388647</v>
       </c>
       <c r="E26">
-        <v>3.469659594542361</v>
+        <v>10.67283122427669</v>
       </c>
       <c r="F26">
-        <v>3.231590776084636</v>
+        <v>9.940520676245134</v>
       </c>
       <c r="G26">
-        <v>67.30104738177732</v>
+        <v>207.0210925165698</v>
       </c>
       <c r="H26">
-        <v>0.3863852083738238</v>
+        <v>1.18853853070123</v>
       </c>
       <c r="I26">
-        <v>764.481015025529</v>
+        <v>2351.578483481571</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>587.6217751928434</v>
+        <v>1807.551392133119</v>
       </c>
       <c r="C27">
-        <v>0.01959475334232023</v>
+        <v>0.06027435533816374</v>
       </c>
       <c r="D27">
-        <v>6.165006401097214</v>
+        <v>18.96384098284275</v>
       </c>
       <c r="E27">
-        <v>2.684076290117675</v>
+        <v>8.256341135761218</v>
       </c>
       <c r="F27">
-        <v>3.784859235803407</v>
+        <v>11.64239970252835</v>
       </c>
       <c r="G27">
-        <v>60.69480960197098</v>
+        <v>186.7000036805874</v>
       </c>
       <c r="H27">
-        <v>0.5666983056149417</v>
+        <v>1.743189845028472</v>
       </c>
       <c r="I27">
-        <v>661.53681978079</v>
+        <v>2034.917441835205</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>618.9152425108051</v>
+        <v>1903.811525441983</v>
       </c>
       <c r="C28">
-        <v>0.01816968037196966</v>
+        <v>0.05589076585902457</v>
       </c>
       <c r="D28">
-        <v>5.864274381531493</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E28">
-        <v>3.796985971385981</v>
+        <v>11.67970209449147</v>
       </c>
       <c r="F28">
-        <v>3.118422227505797</v>
+        <v>9.592409057232659</v>
       </c>
       <c r="G28">
-        <v>70.60416627168054</v>
+        <v>217.1816369345611</v>
       </c>
       <c r="H28">
-        <v>0.5924573195065301</v>
+        <v>1.822425747075219</v>
       </c>
       <c r="I28">
-        <v>702.9097183627874</v>
+        <v>2162.182365610248</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>616.8290113562743</v>
+        <v>1897.394183221392</v>
       </c>
       <c r="C29">
-        <v>0.0167446074016191</v>
+        <v>0.0515071763798854</v>
       </c>
       <c r="D29">
-        <v>4.962078322834342</v>
+        <v>15.26357932765393</v>
       </c>
       <c r="E29">
-        <v>2.553145739380228</v>
+        <v>7.853592787675304</v>
       </c>
       <c r="F29">
-        <v>2.854362280821838</v>
+        <v>8.780148612870217</v>
       </c>
       <c r="G29">
-        <v>52.84990223845092</v>
+        <v>162.5687106878584</v>
       </c>
       <c r="H29">
-        <v>0.3606261944822355</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I29">
-        <v>680.4258707396457</v>
+        <v>2093.021024442484</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>652.6426461757203</v>
+        <v>2007.558558008203</v>
       </c>
       <c r="C30">
-        <v>0.01745714388679439</v>
+        <v>0.05369897111945499</v>
       </c>
       <c r="D30">
-        <v>4.811712313051483</v>
+        <v>14.80104662075532</v>
       </c>
       <c r="E30">
-        <v>3.011402666961295</v>
+        <v>9.263212005976001</v>
       </c>
       <c r="F30">
-        <v>3.558522138645727</v>
+        <v>10.9461764645034</v>
       </c>
       <c r="G30">
-        <v>43.76632529121712</v>
+        <v>134.6272135383828</v>
       </c>
       <c r="H30">
-        <v>0.5409392917233534</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I30">
-        <v>708.3490050212059</v>
+        <v>2178.913859551922</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>629.3463982834592</v>
+        <v>1935.898236544938</v>
       </c>
       <c r="C31">
-        <v>0.01389446146091798</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D31">
-        <v>6.841653445120074</v>
+        <v>21.04523816388647</v>
       </c>
       <c r="E31">
-        <v>2.749541565486401</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F31">
-        <v>3.369907891014329</v>
+        <v>10.36599043281594</v>
       </c>
       <c r="G31">
-        <v>41.70187598502766</v>
+        <v>128.2768732771384</v>
       </c>
       <c r="H31">
-        <v>0.6182163333981183</v>
+        <v>1.901661649121968</v>
       </c>
       <c r="I31">
-        <v>684.6414879649667</v>
+        <v>2105.988455375127</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>666.5508538725924</v>
+        <v>2050.340839478809</v>
       </c>
       <c r="C32">
-        <v>0.01603207091644383</v>
+        <v>0.04931538164031581</v>
       </c>
       <c r="D32">
-        <v>6.76647044022865</v>
+        <v>20.81397181043716</v>
       </c>
       <c r="E32">
-        <v>2.880472116223847</v>
+        <v>8.860463657890085</v>
       </c>
       <c r="F32">
-        <v>3.281887908786342</v>
+        <v>10.09523695136179</v>
       </c>
       <c r="G32">
-        <v>41.28898612378979</v>
+        <v>127.0068052248895</v>
       </c>
       <c r="H32">
-        <v>0.3606261944822355</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I32">
-        <v>721.1453287270197</v>
+        <v>2218.275935133682</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>774.6871687157718</v>
+        <v>2382.973077912774</v>
       </c>
       <c r="C33">
-        <v>0.01460699794609326</v>
+        <v>0.04493179216117662</v>
       </c>
       <c r="D33">
-        <v>8.495679552731522</v>
+        <v>26.13309793977112</v>
       </c>
       <c r="E33">
-        <v>2.749541565486401</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F33">
-        <v>3.269313625610917</v>
+        <v>10.05655788258263</v>
       </c>
       <c r="G33">
-        <v>32.20540917655602</v>
+        <v>99.0653080754138</v>
       </c>
       <c r="H33">
-        <v>0.4636622500485886</v>
+        <v>1.426246236841476</v>
       </c>
       <c r="I33">
-        <v>821.8853818841515</v>
+        <v>2528.156935149348</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>877.2602004802035</v>
+        <v>2698.492403758497</v>
       </c>
       <c r="C34">
-        <v>0.01389446146091798</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D34">
-        <v>5.864274381531493</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E34">
-        <v>4.648034551179389</v>
+        <v>14.29756635704991</v>
       </c>
       <c r="F34">
-        <v>2.213073838875082</v>
+        <v>6.807516105132855</v>
       </c>
       <c r="G34">
-        <v>17.75426403322961</v>
+        <v>54.61292624670247</v>
       </c>
       <c r="H34">
-        <v>0.7470114028560594</v>
+        <v>2.297841159355712</v>
       </c>
       <c r="I34">
-        <v>908.500753149336</v>
+        <v>2794.589769193205</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>884.2143043286391</v>
+        <v>2719.883544493799</v>
       </c>
       <c r="C35">
-        <v>0.01353819321833034</v>
+        <v>0.04164410005182222</v>
       </c>
       <c r="D35">
-        <v>5.18762733750863</v>
+        <v>15.95737838800183</v>
       </c>
       <c r="E35">
-        <v>4.648034551179389</v>
+        <v>14.29756635704991</v>
       </c>
       <c r="F35">
-        <v>1.798122494086004</v>
+        <v>5.531106835420444</v>
       </c>
       <c r="G35">
-        <v>3.716008751141077</v>
+        <v>11.43061247024005</v>
       </c>
       <c r="H35">
-        <v>0.3091081666990592</v>
+        <v>0.9508308245609839</v>
       </c>
       <c r="I35">
-        <v>899.8867438224715</v>
+        <v>2768.092683469124</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>664.4646227180613</v>
+        <v>2043.923497258218</v>
       </c>
       <c r="C36">
-        <v>0.006412828366577532</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D36">
-        <v>3.683967239680041</v>
+        <v>11.33205131901579</v>
       </c>
       <c r="E36">
-        <v>4.255242898967046</v>
+        <v>13.08932131279217</v>
       </c>
       <c r="F36">
-        <v>1.21970546801638</v>
+        <v>3.751869671578905</v>
       </c>
       <c r="G36">
-        <v>7.432017502282155</v>
+        <v>22.86122494048011</v>
       </c>
       <c r="H36">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I36">
-        <v>681.1392456970482</v>
+        <v>2095.21539836088</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>543.8109209476963</v>
+        <v>1672.787205500709</v>
       </c>
       <c r="C37">
-        <v>0.009619242549866295</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D37">
-        <v>2.481039161417171</v>
+        <v>7.631789663826963</v>
       </c>
       <c r="E37">
-        <v>4.778965101916838</v>
+        <v>14.70031470513583</v>
       </c>
       <c r="F37">
-        <v>0.7418827073501693</v>
+        <v>2.282065057970673</v>
       </c>
       <c r="G37">
-        <v>7.01912764104426</v>
+        <v>21.59115688823121</v>
       </c>
       <c r="H37">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I37">
-        <v>558.9188318436494</v>
+        <v>1719.259828750998</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>397.7747401305402</v>
+        <v>1223.573250059341</v>
       </c>
       <c r="C38">
-        <v>0.00534402363881461</v>
+        <v>0.01643846054677193</v>
       </c>
       <c r="D38">
-        <v>2.105124136960024</v>
+        <v>6.475457896580451</v>
       </c>
       <c r="E38">
-        <v>3.60059014527981</v>
+        <v>11.07557957236261</v>
       </c>
       <c r="F38">
-        <v>0.6664370082976099</v>
+        <v>2.04999064529569</v>
       </c>
       <c r="G38">
-        <v>3.716008751141077</v>
+        <v>11.43061247024005</v>
       </c>
       <c r="H38">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I38">
-        <v>407.9197622236407</v>
+        <v>1254.779800908461</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>279.5549747071279</v>
+        <v>859.9238575591878</v>
       </c>
       <c r="C39">
-        <v>0.006412828366577532</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D39">
-        <v>1.052562068480012</v>
+        <v>3.237728948290226</v>
       </c>
       <c r="E39">
-        <v>1.833027710324267</v>
+        <v>5.638476873202784</v>
       </c>
       <c r="F39">
-        <v>0.3646542120873714</v>
+        <v>1.121692994595754</v>
       </c>
       <c r="G39">
-        <v>7.844907363520059</v>
+        <v>24.13129299272901</v>
       </c>
       <c r="H39">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I39">
-        <v>290.7080569176894</v>
+        <v>894.2312473247551</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>166.5507871700425</v>
+        <v>512.3178206105111</v>
       </c>
       <c r="C40">
-        <v>0.007481633094340453</v>
+        <v>0.02301384476548071</v>
       </c>
       <c r="D40">
-        <v>0.902196058697153</v>
+        <v>2.775196241391623</v>
       </c>
       <c r="E40">
-        <v>0.7855833044246857</v>
+        <v>2.416490088515477</v>
       </c>
       <c r="F40">
-        <v>0.3269313625610916</v>
+        <v>1.005655788258263</v>
       </c>
       <c r="G40">
-        <v>4.954678334854774</v>
+        <v>15.24081662698674</v>
       </c>
       <c r="H40">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I40">
-        <v>173.5791758914577</v>
+        <v>533.9374650045224</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>122.7399329248957</v>
+        <v>377.5536339781008</v>
       </c>
       <c r="C41">
-        <v>0.01175685200539214</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D41">
-        <v>0.07518300489142943</v>
+        <v>0.2312663534493019</v>
       </c>
       <c r="E41">
-        <v>0.3927916522123429</v>
+        <v>1.208245044257738</v>
       </c>
       <c r="F41">
-        <v>0.5155456101924907</v>
+        <v>1.585841819945722</v>
       </c>
       <c r="G41">
-        <v>6.606237779806365</v>
+        <v>20.32108883598231</v>
       </c>
       <c r="I41">
-        <v>130.3414478240037</v>
+        <v>400.9362406449388</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>71.62726963889094</v>
+        <v>220.3287495736228</v>
       </c>
       <c r="C42">
-        <v>0.008550437822103372</v>
+        <v>0.02630153687483509</v>
       </c>
       <c r="D42">
-        <v>0.07518300489142943</v>
+        <v>0.2312663534493019</v>
       </c>
       <c r="E42">
-        <v>0.2618611014748952</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F42">
-        <v>0.4023770616136512</v>
+        <v>1.237730200933247</v>
       </c>
       <c r="G42">
-        <v>6.193347918568467</v>
+        <v>19.05102078373343</v>
       </c>
       <c r="H42">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I42">
-        <v>78.59434817715307</v>
+        <v>241.7598010468321</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>54.93742040264453</v>
+        <v>168.9900118088951</v>
       </c>
       <c r="C43">
-        <v>0.01211312024797978</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D43">
-        <v>0.6014640391314354</v>
+        <v>1.850130827594415</v>
       </c>
       <c r="E43">
-        <v>0.06546527536872379</v>
+        <v>0.2013741740429565</v>
       </c>
       <c r="F43">
-        <v>0.2640599466839585</v>
+        <v>0.8122604443624428</v>
       </c>
       <c r="G43">
-        <v>8.257797224757951</v>
+        <v>25.4013610449779</v>
       </c>
       <c r="I43">
-        <v>64.13832000883458</v>
+        <v>197.2923988104455</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>68.15021771467295</v>
+        <v>209.6331792059711</v>
       </c>
       <c r="C44">
-        <v>0.006412828366577532</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D44">
-        <v>0.4510980293485765</v>
+        <v>1.387598120695812</v>
       </c>
       <c r="E44">
-        <v>0.5891874783185143</v>
+        <v>1.812367566386608</v>
       </c>
       <c r="F44">
-        <v>0.3269313625610916</v>
+        <v>1.005655788258263</v>
       </c>
       <c r="G44">
-        <v>7.01912764104426</v>
+        <v>21.59115688823121</v>
       </c>
       <c r="H44">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I44">
-        <v>76.56873406820355</v>
+        <v>235.5289196242459</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>100.4868006099004</v>
+        <v>309.1019836251309</v>
       </c>
       <c r="C45">
-        <v>0.001781341212938203</v>
+        <v>0.005479486848923978</v>
       </c>
       <c r="D45">
-        <v>0.9773790635885824</v>
+        <v>3.006462594840925</v>
       </c>
       <c r="E45">
-        <v>0.3273263768436192</v>
+        <v>1.006870870214782</v>
       </c>
       <c r="F45">
-        <v>0.6035655924204769</v>
+        <v>1.85659530139987</v>
       </c>
       <c r="G45">
-        <v>11.97380597589904</v>
+        <v>36.83197351521794</v>
       </c>
       <c r="H45">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I45">
-        <v>114.3964179737566</v>
+        <v>351.8886012957001</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>266.3421773950993</v>
+        <v>819.2806901621115</v>
       </c>
       <c r="C46">
-        <v>0.003562682425876405</v>
+        <v>0.01095897369784796</v>
       </c>
       <c r="D46">
-        <v>1.954758127177165</v>
+        <v>6.01292518968185</v>
       </c>
       <c r="E46">
-        <v>2.356749913274057</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F46">
-        <v>1.29515116706894</v>
+        <v>3.983944084253887</v>
       </c>
       <c r="G46">
-        <v>18.5800437557054</v>
+        <v>57.15306235120029</v>
       </c>
       <c r="H46">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I46">
-        <v>290.5839610685339</v>
+        <v>893.8495228305852</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>437.0654268742034</v>
+        <v>1344.433195213804</v>
       </c>
       <c r="C47">
-        <v>0.007837901336928093</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D47">
-        <v>3.90951625435433</v>
+        <v>12.0258503793637</v>
       </c>
       <c r="E47">
-        <v>5.760944232447693</v>
+        <v>17.72092731578017</v>
       </c>
       <c r="F47">
-        <v>2.288519537927641</v>
+        <v>7.039590517807842</v>
       </c>
       <c r="G47">
-        <v>24.77339167427387</v>
+        <v>76.20408313493373</v>
       </c>
       <c r="H47">
-        <v>0.3348671805906473</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I47">
-        <v>474.1405036551345</v>
+        <v>1458.477823030433</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>734.7010715872648</v>
+        <v>2259.97401868478</v>
       </c>
       <c r="C48">
-        <v>0.007837901336928093</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D48">
-        <v>6.390555415771501</v>
+        <v>19.65764004319066</v>
       </c>
       <c r="E48">
-        <v>7.266645565928344</v>
+        <v>22.35253331876817</v>
       </c>
       <c r="F48">
-        <v>2.879510847172691</v>
+        <v>8.857506750428545</v>
       </c>
       <c r="G48">
-        <v>47.06944418112035</v>
+        <v>144.787757956374</v>
       </c>
       <c r="H48">
-        <v>0.6697343611812946</v>
+        <v>2.060133453215465</v>
       </c>
       <c r="I48">
-        <v>798.984799859776</v>
+        <v>2457.713699948892</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>844.923617584975</v>
+        <v>2599.023599339336</v>
       </c>
       <c r="C49">
-        <v>0.007125364851752811</v>
+        <v>0.02191794739569591</v>
       </c>
       <c r="D49">
-        <v>5.864274381531493</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E49">
-        <v>4.058847072860877</v>
+        <v>12.4851987906633</v>
       </c>
       <c r="F49">
-        <v>2.389113803331053</v>
+        <v>7.34902306804115</v>
       </c>
       <c r="G49">
-        <v>27.25073084170126</v>
+        <v>83.82449144842708</v>
       </c>
       <c r="H49">
-        <v>0.3606261944822355</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I49">
-        <v>884.8543352437337</v>
+        <v>2721.852308791563</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_VOC.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2101.679577243538</v>
+        <v>657.2619691503273</v>
       </c>
       <c r="C2">
-        <v>0.03068512635397427</v>
+        <v>0.009596213804147703</v>
       </c>
       <c r="D2">
-        <v>21.04523816388647</v>
+        <v>6.581514530856954</v>
       </c>
       <c r="E2">
-        <v>10.67283122427669</v>
+        <v>3.337733374217557</v>
       </c>
       <c r="F2">
-        <v>9.940520676245134</v>
+        <v>3.108716602089022</v>
       </c>
       <c r="G2">
-        <v>207.0210925165698</v>
+        <v>64.74207219615843</v>
       </c>
       <c r="H2">
-        <v>1.18853853070123</v>
+        <v>0.3716937555839445</v>
       </c>
       <c r="I2">
-        <v>2351.578483481571</v>
+        <v>735.4132958230373</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1830.012089905186</v>
+        <v>572.3029156316592</v>
       </c>
       <c r="C3">
-        <v>0.07013743166622691</v>
+        <v>0.02193420298090903</v>
       </c>
       <c r="D3">
-        <v>10.40698590521858</v>
+        <v>3.254595097676517</v>
       </c>
       <c r="E3">
-        <v>7.652218613632345</v>
+        <v>2.393091853212587</v>
       </c>
       <c r="F3">
-        <v>11.87447411520333</v>
+        <v>3.713525279538248</v>
       </c>
       <c r="G3">
-        <v>166.3789148446053</v>
+        <v>52.03197213310892</v>
       </c>
       <c r="H3">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I3">
-        <v>2027.42488754212</v>
+        <v>634.0401687863491</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1954.080706169946</v>
+        <v>611.103113301602</v>
       </c>
       <c r="C4">
-        <v>0.06794563692665732</v>
+        <v>0.02124875913775563</v>
       </c>
       <c r="D4">
-        <v>18.27004192249487</v>
+        <v>5.713622504809885</v>
       </c>
       <c r="E4">
-        <v>8.256341135761218</v>
+        <v>2.58202015741358</v>
       </c>
       <c r="F4">
-        <v>9.863162538686806</v>
+        <v>3.084524254991054</v>
       </c>
       <c r="G4">
-        <v>179.0795953670941</v>
+        <v>56.00387840281191</v>
       </c>
       <c r="H4">
-        <v>1.267774432747979</v>
+        <v>0.3964733392895409</v>
       </c>
       <c r="I4">
-        <v>2170.885567203658</v>
+        <v>678.9048807200556</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1802.203606949293</v>
+        <v>563.6063196021889</v>
       </c>
       <c r="C5">
-        <v>0.04712358690074621</v>
+        <v>0.01473704262779826</v>
       </c>
       <c r="D5">
-        <v>14.33851391385671</v>
+        <v>4.4841088012432</v>
       </c>
       <c r="E5">
-        <v>8.457715309804174</v>
+        <v>2.644996258813912</v>
       </c>
       <c r="F5">
-        <v>8.315999787520246</v>
+        <v>2.600677313031672</v>
       </c>
       <c r="G5">
-        <v>170.1891190013519</v>
+        <v>53.2235440140198</v>
       </c>
       <c r="H5">
-        <v>1.426246236841476</v>
+        <v>0.4460325067007334</v>
       </c>
       <c r="I5">
-        <v>2004.978324785568</v>
+        <v>627.020415538626</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1863.168358044906</v>
+        <v>582.6719339744888</v>
       </c>
       <c r="C6">
-        <v>0.05369897111945499</v>
+        <v>0.01679337415725848</v>
       </c>
       <c r="D6">
-        <v>21.97030357768368</v>
+        <v>6.870811872872643</v>
       </c>
       <c r="E6">
-        <v>8.457715309804174</v>
+        <v>2.644996258813912</v>
       </c>
       <c r="F6">
-        <v>10.09523695136179</v>
+        <v>3.15710129628496</v>
       </c>
       <c r="G6">
-        <v>149.8680301653696</v>
+        <v>46.86849398249509</v>
       </c>
       <c r="H6">
-        <v>1.347010334794728</v>
+        <v>0.4212529229951372</v>
       </c>
       <c r="I6">
-        <v>2054.960353355039</v>
+        <v>642.6513836821077</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1919.85488099346</v>
+        <v>600.3996104961006</v>
       </c>
       <c r="C7">
-        <v>0.05041127901010059</v>
+        <v>0.01576520839252836</v>
       </c>
       <c r="D7">
-        <v>21.7390372242344</v>
+        <v>6.798487537368723</v>
       </c>
       <c r="E7">
-        <v>7.048096091503476</v>
+        <v>2.204163549011595</v>
       </c>
       <c r="F7">
-        <v>10.44334857037427</v>
+        <v>3.265966858225822</v>
       </c>
       <c r="G7">
-        <v>173.9993231580987</v>
+        <v>54.41511589493069</v>
       </c>
       <c r="H7">
-        <v>1.663953942981722</v>
+        <v>0.5203712578175226</v>
       </c>
       <c r="I7">
-        <v>2134.799051259663</v>
+        <v>667.6194808018474</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2036.436598000862</v>
+        <v>636.8584169273402</v>
       </c>
       <c r="C8">
-        <v>0.05260307374967019</v>
+        <v>0.01645065223568178</v>
       </c>
       <c r="D8">
-        <v>22.20156993113299</v>
+        <v>6.943136208376568</v>
       </c>
       <c r="E8">
-        <v>6.041225221288696</v>
+        <v>1.889283042009937</v>
       </c>
       <c r="F8">
-        <v>10.55938577671176</v>
+        <v>3.302255378872775</v>
       </c>
       <c r="G8">
-        <v>99.0653080754138</v>
+        <v>30.98086890368318</v>
       </c>
       <c r="H8">
-        <v>1.822425747075219</v>
+        <v>0.5699304252287151</v>
       </c>
       <c r="I8">
-        <v>2176.179115826234</v>
+        <v>680.560341537747</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2382.973077912774</v>
+        <v>745.231382833043</v>
       </c>
       <c r="C9">
-        <v>0.04493179216117662</v>
+        <v>0.01405159878464485</v>
       </c>
       <c r="D9">
-        <v>26.13309793977112</v>
+        <v>8.172649911943251</v>
       </c>
       <c r="E9">
-        <v>8.457715309804174</v>
+        <v>2.644996258813912</v>
       </c>
       <c r="F9">
-        <v>10.05655788258263</v>
+        <v>3.145005122735975</v>
       </c>
       <c r="G9">
-        <v>99.0653080754138</v>
+        <v>30.98086890368318</v>
       </c>
       <c r="H9">
-        <v>1.426246236841476</v>
+        <v>0.4460325067007334</v>
       </c>
       <c r="I9">
-        <v>2528.156935149348</v>
+        <v>790.6349871357045</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2698.492403758497</v>
+        <v>843.9042993212601</v>
       </c>
       <c r="C10">
-        <v>0.04273999742160702</v>
+        <v>0.01336615494149144</v>
       </c>
       <c r="D10">
-        <v>18.03877556904554</v>
+        <v>5.641298169305963</v>
       </c>
       <c r="E10">
-        <v>14.29756635704991</v>
+        <v>4.471303199423519</v>
       </c>
       <c r="F10">
-        <v>6.807516105132855</v>
+        <v>2.128926544621276</v>
       </c>
       <c r="G10">
-        <v>54.61292624670247</v>
+        <v>17.07919695972278</v>
       </c>
       <c r="H10">
-        <v>2.297841159355712</v>
+        <v>0.7186079274622929</v>
       </c>
       <c r="I10">
-        <v>2794.589769193205</v>
+        <v>873.9569982767375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2719.883544493799</v>
+        <v>850.5939885746982</v>
       </c>
       <c r="C11">
-        <v>0.04164410005182222</v>
+        <v>0.01302343301991474</v>
       </c>
       <c r="D11">
-        <v>15.95737838800183</v>
+        <v>4.990379149770659</v>
       </c>
       <c r="E11">
-        <v>14.29756635704991</v>
+        <v>4.471303199423519</v>
       </c>
       <c r="F11">
-        <v>5.531106835420444</v>
+        <v>1.729752817504786</v>
       </c>
       <c r="G11">
-        <v>11.43061247024005</v>
+        <v>3.574715642732674</v>
       </c>
       <c r="H11">
-        <v>0.9508308245609839</v>
+        <v>0.2973550044671557</v>
       </c>
       <c r="I11">
-        <v>2768.092683469124</v>
+        <v>865.670517821617</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2043.923497258218</v>
+        <v>639.1998081660437</v>
       </c>
       <c r="C12">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D12">
-        <v>11.33205131901579</v>
+        <v>3.543892439692207</v>
       </c>
       <c r="E12">
-        <v>13.08932131279217</v>
+        <v>4.093446591021531</v>
       </c>
       <c r="F12">
-        <v>3.751869671578905</v>
+        <v>1.173328834251499</v>
       </c>
       <c r="G12">
-        <v>22.86122494048011</v>
+        <v>7.149431285465348</v>
       </c>
       <c r="H12">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I12">
-        <v>2095.21539836088</v>
+        <v>655.2404150621794</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1672.787205500709</v>
+        <v>523.1336996188866</v>
       </c>
       <c r="C13">
-        <v>0.02958922898418949</v>
+        <v>0.009253491882571</v>
       </c>
       <c r="D13">
-        <v>7.631789663826963</v>
+        <v>2.386703071629445</v>
       </c>
       <c r="E13">
-        <v>14.70031470513583</v>
+        <v>4.597255402224185</v>
       </c>
       <c r="F13">
-        <v>2.282065057970673</v>
+        <v>0.7136742393900868</v>
       </c>
       <c r="G13">
-        <v>21.59115688823121</v>
+        <v>6.75224065849505</v>
       </c>
       <c r="H13">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I13">
-        <v>1719.259828750998</v>
+        <v>537.6671652336246</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1223.573250059341</v>
+        <v>382.6502252966791</v>
       </c>
       <c r="C14">
-        <v>0.01643846054677193</v>
+        <v>0.005140828823650554</v>
       </c>
       <c r="D14">
-        <v>6.475457896580451</v>
+        <v>2.025081394109832</v>
       </c>
       <c r="E14">
-        <v>11.07557957236261</v>
+        <v>3.46368557701822</v>
       </c>
       <c r="F14">
-        <v>2.04999064529569</v>
+        <v>0.6410971980961798</v>
       </c>
       <c r="G14">
-        <v>11.43061247024005</v>
+        <v>3.574715642732674</v>
       </c>
       <c r="H14">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I14">
-        <v>1254.779800908461</v>
+        <v>392.4095051048708</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>859.9238575591878</v>
+        <v>268.9255079882255</v>
       </c>
       <c r="C15">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D15">
-        <v>3.237728948290226</v>
+        <v>1.012540697054916</v>
       </c>
       <c r="E15">
-        <v>5.638476873202784</v>
+        <v>1.763330839209275</v>
       </c>
       <c r="F15">
-        <v>1.121692994595754</v>
+        <v>0.3507890329205511</v>
       </c>
       <c r="G15">
-        <v>24.13129299272901</v>
+        <v>7.546621912435642</v>
       </c>
       <c r="H15">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I15">
-        <v>894.2312473247551</v>
+        <v>279.6545186318455</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>512.3178206105111</v>
+        <v>160.2180576198508</v>
       </c>
       <c r="C16">
-        <v>0.02301384476548071</v>
+        <v>0.007197160353110777</v>
       </c>
       <c r="D16">
-        <v>2.775196241391623</v>
+        <v>0.8678920260470709</v>
       </c>
       <c r="E16">
-        <v>2.416490088515477</v>
+        <v>0.7557132168039751</v>
       </c>
       <c r="F16">
-        <v>1.005655788258263</v>
+        <v>0.3145005122735977</v>
       </c>
       <c r="G16">
-        <v>15.24081662698674</v>
+        <v>4.766287523643563</v>
       </c>
       <c r="H16">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I16">
-        <v>533.9374650045224</v>
+        <v>166.9792072263833</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>377.5536339781008</v>
+        <v>118.0730153231886</v>
       </c>
       <c r="C17">
-        <v>0.03616461320289825</v>
+        <v>0.01130982341203122</v>
       </c>
       <c r="D17">
-        <v>0.2312663534493019</v>
+        <v>0.07232433550392259</v>
       </c>
       <c r="E17">
-        <v>1.208245044257738</v>
+        <v>0.3778566084019875</v>
       </c>
       <c r="F17">
-        <v>1.585841819945722</v>
+        <v>0.4959431155083653</v>
       </c>
       <c r="G17">
-        <v>20.32108883598231</v>
+        <v>6.35505003152475</v>
       </c>
       <c r="I17">
-        <v>400.9362406449388</v>
+        <v>125.3854992375396</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>220.3287495736228</v>
+        <v>68.90379931041603</v>
       </c>
       <c r="C18">
-        <v>0.02630153687483509</v>
+        <v>0.00822532611784089</v>
       </c>
       <c r="D18">
-        <v>0.2312663534493019</v>
+        <v>0.07232433550392259</v>
       </c>
       <c r="E18">
-        <v>0.8054966961718261</v>
+        <v>0.251904405601325</v>
       </c>
       <c r="F18">
-        <v>1.237730200933247</v>
+        <v>0.3870775535675048</v>
       </c>
       <c r="G18">
-        <v>19.05102078373343</v>
+        <v>5.95785940455446</v>
       </c>
       <c r="H18">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I18">
-        <v>241.7598010468321</v>
+        <v>75.60596991946667</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>168.9900118088951</v>
+        <v>52.84854510216375</v>
       </c>
       <c r="C19">
-        <v>0.03726051057268304</v>
+        <v>0.01165254533360792</v>
       </c>
       <c r="D19">
-        <v>1.850130827594415</v>
+        <v>0.5785946840313807</v>
       </c>
       <c r="E19">
-        <v>0.2013741740429565</v>
+        <v>0.06297610140033126</v>
       </c>
       <c r="F19">
-        <v>0.8122604443624428</v>
+        <v>0.254019644528675</v>
       </c>
       <c r="G19">
-        <v>25.4013610449779</v>
+        <v>7.943812539405945</v>
       </c>
       <c r="I19">
-        <v>197.2923988104455</v>
+        <v>61.69960061686369</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>209.6331792059711</v>
+        <v>65.55895468369678</v>
       </c>
       <c r="C20">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D20">
-        <v>1.387598120695812</v>
+        <v>0.4339460130235355</v>
       </c>
       <c r="E20">
-        <v>1.812367566386608</v>
+        <v>0.5667849126029814</v>
       </c>
       <c r="F20">
-        <v>1.005655788258263</v>
+        <v>0.3145005122735977</v>
       </c>
       <c r="G20">
-        <v>21.59115688823121</v>
+        <v>6.75224065849505</v>
       </c>
       <c r="H20">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I20">
-        <v>235.5289196242459</v>
+        <v>73.65737535838592</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>309.1019836251309</v>
+        <v>96.66600971218556</v>
       </c>
       <c r="C21">
-        <v>0.005479486848923978</v>
+        <v>0.001713609607883518</v>
       </c>
       <c r="D21">
-        <v>3.006462594840925</v>
+        <v>0.9402163615509935</v>
       </c>
       <c r="E21">
-        <v>1.006870870214782</v>
+        <v>0.3148805070016564</v>
       </c>
       <c r="F21">
-        <v>1.85659530139987</v>
+        <v>0.5806163303512571</v>
       </c>
       <c r="G21">
-        <v>36.83197351521794</v>
+        <v>11.51852818213861</v>
       </c>
       <c r="H21">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I21">
-        <v>351.8886012957001</v>
+        <v>110.0467442865416</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>819.2806901621115</v>
+        <v>256.2150984066926</v>
       </c>
       <c r="C22">
-        <v>0.01095897369784796</v>
+        <v>0.003427219215767036</v>
       </c>
       <c r="D22">
-        <v>6.01292518968185</v>
+        <v>1.880432723101987</v>
       </c>
       <c r="E22">
-        <v>7.249470265546433</v>
+        <v>2.267139650411925</v>
       </c>
       <c r="F22">
-        <v>3.983944084253887</v>
+        <v>1.245905875545406</v>
       </c>
       <c r="G22">
-        <v>57.15306235120029</v>
+        <v>17.87357821366337</v>
       </c>
       <c r="H22">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I22">
-        <v>893.8495228305852</v>
+        <v>279.5351412560423</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1344.433195213804</v>
+        <v>420.4469695786065</v>
       </c>
       <c r="C23">
-        <v>0.0241097421352655</v>
+        <v>0.00753988227468748</v>
       </c>
       <c r="D23">
-        <v>12.0258503793637</v>
+        <v>3.760865446203974</v>
       </c>
       <c r="E23">
-        <v>17.72092731578017</v>
+        <v>5.541896923229151</v>
       </c>
       <c r="F23">
-        <v>7.039590517807842</v>
+        <v>2.201503585915184</v>
       </c>
       <c r="G23">
-        <v>76.20408313493373</v>
+        <v>23.83143761821784</v>
       </c>
       <c r="H23">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I23">
-        <v>1458.477823030433</v>
+        <v>456.1123476226201</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2259.97401868478</v>
+        <v>706.7656696257718</v>
       </c>
       <c r="C24">
-        <v>0.0241097421352655</v>
+        <v>0.00753988227468748</v>
       </c>
       <c r="D24">
-        <v>19.65764004319066</v>
+        <v>6.147568517833424</v>
       </c>
       <c r="E24">
-        <v>22.35253331876817</v>
+        <v>6.990347255436768</v>
       </c>
       <c r="F24">
-        <v>8.857506750428545</v>
+        <v>2.770023742717456</v>
       </c>
       <c r="G24">
-        <v>144.787757956374</v>
+        <v>45.27973147461386</v>
       </c>
       <c r="H24">
-        <v>2.060133453215465</v>
+        <v>0.6442691763455042</v>
       </c>
       <c r="I24">
-        <v>2457.713699948892</v>
+        <v>768.6051496749935</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2599.023599339336</v>
+        <v>812.7972442927714</v>
       </c>
       <c r="C25">
-        <v>0.02191794739569591</v>
+        <v>0.006854438431534072</v>
       </c>
       <c r="D25">
-        <v>18.03877556904554</v>
+        <v>5.641298169305963</v>
       </c>
       <c r="E25">
-        <v>12.4851987906633</v>
+        <v>3.904518286820537</v>
       </c>
       <c r="F25">
-        <v>7.34902306804115</v>
+        <v>2.29827297430706</v>
       </c>
       <c r="G25">
-        <v>83.82449144842708</v>
+        <v>26.21458138003959</v>
       </c>
       <c r="H25">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I25">
-        <v>2721.852308791563</v>
+        <v>851.2096837135546</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2101.679577243538</v>
+        <v>657.2619691503273</v>
       </c>
       <c r="C26">
-        <v>0.03068512635397427</v>
+        <v>0.009596213804147703</v>
       </c>
       <c r="D26">
-        <v>21.04523816388647</v>
+        <v>6.581514530856954</v>
       </c>
       <c r="E26">
-        <v>10.67283122427669</v>
+        <v>3.337733374217557</v>
       </c>
       <c r="F26">
-        <v>9.940520676245134</v>
+        <v>3.108716602089022</v>
       </c>
       <c r="G26">
-        <v>207.0210925165698</v>
+        <v>64.74207219615843</v>
       </c>
       <c r="H26">
-        <v>1.18853853070123</v>
+        <v>0.3716937555839445</v>
       </c>
       <c r="I26">
-        <v>2351.578483481571</v>
+        <v>735.4132958230373</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1807.551392133119</v>
+        <v>565.2787419155488</v>
       </c>
       <c r="C27">
-        <v>0.06027435533816374</v>
+        <v>0.0188497056867187</v>
       </c>
       <c r="D27">
-        <v>18.96384098284275</v>
+        <v>5.930595511321649</v>
       </c>
       <c r="E27">
-        <v>8.256341135761218</v>
+        <v>2.58202015741358</v>
       </c>
       <c r="F27">
-        <v>11.64239970252835</v>
+        <v>3.640948238244342</v>
       </c>
       <c r="G27">
-        <v>186.7000036805874</v>
+        <v>58.38702216463367</v>
       </c>
       <c r="H27">
-        <v>1.743189845028472</v>
+        <v>0.5451508415231188</v>
       </c>
       <c r="I27">
-        <v>2034.917441835205</v>
+        <v>636.3833285343719</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1903.811525441983</v>
+        <v>595.3823435560217</v>
       </c>
       <c r="C28">
-        <v>0.05589076585902457</v>
+        <v>0.01747881800041188</v>
       </c>
       <c r="D28">
-        <v>18.03877556904554</v>
+        <v>5.641298169305963</v>
       </c>
       <c r="E28">
-        <v>11.67970209449147</v>
+        <v>3.652613881219215</v>
       </c>
       <c r="F28">
-        <v>9.592409057232659</v>
+        <v>2.999851040148161</v>
       </c>
       <c r="G28">
-        <v>217.1816369345611</v>
+        <v>67.91959721192082</v>
       </c>
       <c r="H28">
-        <v>1.822425747075219</v>
+        <v>0.5699304252287151</v>
       </c>
       <c r="I28">
-        <v>2162.182365610248</v>
+        <v>676.183113101845</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1897.394183221392</v>
+        <v>593.3754367799902</v>
       </c>
       <c r="C29">
-        <v>0.0515071763798854</v>
+        <v>0.01610793031410507</v>
       </c>
       <c r="D29">
-        <v>15.26357932765393</v>
+        <v>4.773406143258891</v>
       </c>
       <c r="E29">
-        <v>7.853592787675304</v>
+        <v>2.456067954612918</v>
       </c>
       <c r="F29">
-        <v>8.780148612870217</v>
+        <v>2.745831395619486</v>
       </c>
       <c r="G29">
-        <v>162.5687106878584</v>
+        <v>50.840400252198</v>
       </c>
       <c r="H29">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I29">
-        <v>2093.021024442484</v>
+        <v>654.5541646278718</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2007.558558008203</v>
+        <v>627.8273364351984</v>
       </c>
       <c r="C30">
-        <v>0.05369897111945499</v>
+        <v>0.01679337415725848</v>
       </c>
       <c r="D30">
-        <v>14.80104662075532</v>
+        <v>4.628757472251046</v>
       </c>
       <c r="E30">
-        <v>9.263212005976001</v>
+        <v>2.896900664415238</v>
       </c>
       <c r="F30">
-        <v>10.9461764645034</v>
+        <v>3.423217114362619</v>
       </c>
       <c r="G30">
-        <v>134.6272135383828</v>
+        <v>42.10220645885152</v>
       </c>
       <c r="H30">
-        <v>1.663953942981722</v>
+        <v>0.5203712578175226</v>
       </c>
       <c r="I30">
-        <v>2178.913859551922</v>
+        <v>681.4155827770536</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1935.898236544938</v>
+        <v>605.4168774361792</v>
       </c>
       <c r="C31">
-        <v>0.04273999742160702</v>
+        <v>0.01336615494149144</v>
       </c>
       <c r="D31">
-        <v>21.04523816388647</v>
+        <v>6.581514530856954</v>
       </c>
       <c r="E31">
-        <v>8.457715309804174</v>
+        <v>2.644996258813912</v>
       </c>
       <c r="F31">
-        <v>10.36599043281594</v>
+        <v>3.241774511127852</v>
       </c>
       <c r="G31">
-        <v>128.2768732771384</v>
+        <v>40.116253324</v>
       </c>
       <c r="H31">
-        <v>1.901661649121968</v>
+        <v>0.5947100089343114</v>
       </c>
       <c r="I31">
-        <v>2105.988455375127</v>
+        <v>658.6094922248536</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2050.340839478809</v>
+        <v>641.2067149420748</v>
       </c>
       <c r="C32">
-        <v>0.04931538164031581</v>
+        <v>0.01542248647095167</v>
       </c>
       <c r="D32">
-        <v>20.81397181043716</v>
+        <v>6.509190195353034</v>
       </c>
       <c r="E32">
-        <v>8.860463657890085</v>
+        <v>2.770948461614576</v>
       </c>
       <c r="F32">
-        <v>10.09523695136179</v>
+        <v>3.15710129628496</v>
       </c>
       <c r="G32">
-        <v>127.0068052248895</v>
+        <v>39.71906269702969</v>
       </c>
       <c r="H32">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I32">
-        <v>2218.275935133682</v>
+        <v>693.7253542507063</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2382.973077912774</v>
+        <v>745.231382833043</v>
       </c>
       <c r="C33">
-        <v>0.04493179216117662</v>
+        <v>0.01405159878464485</v>
       </c>
       <c r="D33">
-        <v>26.13309793977112</v>
+        <v>8.172649911943251</v>
       </c>
       <c r="E33">
-        <v>8.457715309804174</v>
+        <v>2.644996258813912</v>
       </c>
       <c r="F33">
-        <v>10.05655788258263</v>
+        <v>3.145005122735975</v>
       </c>
       <c r="G33">
-        <v>99.0653080754138</v>
+        <v>30.98086890368318</v>
       </c>
       <c r="H33">
-        <v>1.426246236841476</v>
+        <v>0.4460325067007334</v>
       </c>
       <c r="I33">
-        <v>2528.156935149348</v>
+        <v>790.6349871357045</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2698.492403758497</v>
+        <v>843.9042993212601</v>
       </c>
       <c r="C34">
-        <v>0.04273999742160702</v>
+        <v>0.01336615494149144</v>
       </c>
       <c r="D34">
-        <v>18.03877556904554</v>
+        <v>5.641298169305963</v>
       </c>
       <c r="E34">
-        <v>14.29756635704991</v>
+        <v>4.471303199423519</v>
       </c>
       <c r="F34">
-        <v>6.807516105132855</v>
+        <v>2.128926544621276</v>
       </c>
       <c r="G34">
-        <v>54.61292624670247</v>
+        <v>17.07919695972278</v>
       </c>
       <c r="H34">
-        <v>2.297841159355712</v>
+        <v>0.7186079274622929</v>
       </c>
       <c r="I34">
-        <v>2794.589769193205</v>
+        <v>873.9569982767375</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2719.883544493799</v>
+        <v>850.5939885746982</v>
       </c>
       <c r="C35">
-        <v>0.04164410005182222</v>
+        <v>0.01302343301991474</v>
       </c>
       <c r="D35">
-        <v>15.95737838800183</v>
+        <v>4.990379149770659</v>
       </c>
       <c r="E35">
-        <v>14.29756635704991</v>
+        <v>4.471303199423519</v>
       </c>
       <c r="F35">
-        <v>5.531106835420444</v>
+        <v>1.729752817504786</v>
       </c>
       <c r="G35">
-        <v>11.43061247024005</v>
+        <v>3.574715642732674</v>
       </c>
       <c r="H35">
-        <v>0.9508308245609839</v>
+        <v>0.2973550044671557</v>
       </c>
       <c r="I35">
-        <v>2768.092683469124</v>
+        <v>865.670517821617</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2043.923497258218</v>
+        <v>639.1998081660437</v>
       </c>
       <c r="C36">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D36">
-        <v>11.33205131901579</v>
+        <v>3.543892439692207</v>
       </c>
       <c r="E36">
-        <v>13.08932131279217</v>
+        <v>4.093446591021531</v>
       </c>
       <c r="F36">
-        <v>3.751869671578905</v>
+        <v>1.173328834251499</v>
       </c>
       <c r="G36">
-        <v>22.86122494048011</v>
+        <v>7.149431285465348</v>
       </c>
       <c r="H36">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I36">
-        <v>2095.21539836088</v>
+        <v>655.2404150621794</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1672.787205500709</v>
+        <v>523.1336996188866</v>
       </c>
       <c r="C37">
-        <v>0.02958922898418949</v>
+        <v>0.009253491882571</v>
       </c>
       <c r="D37">
-        <v>7.631789663826963</v>
+        <v>2.386703071629445</v>
       </c>
       <c r="E37">
-        <v>14.70031470513583</v>
+        <v>4.597255402224185</v>
       </c>
       <c r="F37">
-        <v>2.282065057970673</v>
+        <v>0.7136742393900868</v>
       </c>
       <c r="G37">
-        <v>21.59115688823121</v>
+        <v>6.75224065849505</v>
       </c>
       <c r="H37">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I37">
-        <v>1719.259828750998</v>
+        <v>537.6671652336246</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1223.573250059341</v>
+        <v>382.6502252966791</v>
       </c>
       <c r="C38">
-        <v>0.01643846054677193</v>
+        <v>0.005140828823650554</v>
       </c>
       <c r="D38">
-        <v>6.475457896580451</v>
+        <v>2.025081394109832</v>
       </c>
       <c r="E38">
-        <v>11.07557957236261</v>
+        <v>3.46368557701822</v>
       </c>
       <c r="F38">
-        <v>2.04999064529569</v>
+        <v>0.6410971980961798</v>
       </c>
       <c r="G38">
-        <v>11.43061247024005</v>
+        <v>3.574715642732674</v>
       </c>
       <c r="H38">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I38">
-        <v>1254.779800908461</v>
+        <v>392.4095051048708</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>859.9238575591878</v>
+        <v>268.9255079882255</v>
       </c>
       <c r="C39">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D39">
-        <v>3.237728948290226</v>
+        <v>1.012540697054916</v>
       </c>
       <c r="E39">
-        <v>5.638476873202784</v>
+        <v>1.763330839209275</v>
       </c>
       <c r="F39">
-        <v>1.121692994595754</v>
+        <v>0.3507890329205511</v>
       </c>
       <c r="G39">
-        <v>24.13129299272901</v>
+        <v>7.546621912435642</v>
       </c>
       <c r="H39">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I39">
-        <v>894.2312473247551</v>
+        <v>279.6545186318455</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>512.3178206105111</v>
+        <v>160.2180576198508</v>
       </c>
       <c r="C40">
-        <v>0.02301384476548071</v>
+        <v>0.007197160353110777</v>
       </c>
       <c r="D40">
-        <v>2.775196241391623</v>
+        <v>0.8678920260470709</v>
       </c>
       <c r="E40">
-        <v>2.416490088515477</v>
+        <v>0.7557132168039751</v>
       </c>
       <c r="F40">
-        <v>1.005655788258263</v>
+        <v>0.3145005122735977</v>
       </c>
       <c r="G40">
-        <v>15.24081662698674</v>
+        <v>4.766287523643563</v>
       </c>
       <c r="H40">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I40">
-        <v>533.9374650045224</v>
+        <v>166.9792072263833</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>377.5536339781008</v>
+        <v>118.0730153231886</v>
       </c>
       <c r="C41">
-        <v>0.03616461320289825</v>
+        <v>0.01130982341203122</v>
       </c>
       <c r="D41">
-        <v>0.2312663534493019</v>
+        <v>0.07232433550392259</v>
       </c>
       <c r="E41">
-        <v>1.208245044257738</v>
+        <v>0.3778566084019875</v>
       </c>
       <c r="F41">
-        <v>1.585841819945722</v>
+        <v>0.4959431155083653</v>
       </c>
       <c r="G41">
-        <v>20.32108883598231</v>
+        <v>6.35505003152475</v>
       </c>
       <c r="I41">
-        <v>400.9362406449388</v>
+        <v>125.3854992375396</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>220.3287495736228</v>
+        <v>68.90379931041603</v>
       </c>
       <c r="C42">
-        <v>0.02630153687483509</v>
+        <v>0.00822532611784089</v>
       </c>
       <c r="D42">
-        <v>0.2312663534493019</v>
+        <v>0.07232433550392259</v>
       </c>
       <c r="E42">
-        <v>0.8054966961718261</v>
+        <v>0.251904405601325</v>
       </c>
       <c r="F42">
-        <v>1.237730200933247</v>
+        <v>0.3870775535675048</v>
       </c>
       <c r="G42">
-        <v>19.05102078373343</v>
+        <v>5.95785940455446</v>
       </c>
       <c r="H42">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I42">
-        <v>241.7598010468321</v>
+        <v>75.60596991946667</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>168.9900118088951</v>
+        <v>52.84854510216375</v>
       </c>
       <c r="C43">
-        <v>0.03726051057268304</v>
+        <v>0.01165254533360792</v>
       </c>
       <c r="D43">
-        <v>1.850130827594415</v>
+        <v>0.5785946840313807</v>
       </c>
       <c r="E43">
-        <v>0.2013741740429565</v>
+        <v>0.06297610140033126</v>
       </c>
       <c r="F43">
-        <v>0.8122604443624428</v>
+        <v>0.254019644528675</v>
       </c>
       <c r="G43">
-        <v>25.4013610449779</v>
+        <v>7.943812539405945</v>
       </c>
       <c r="I43">
-        <v>197.2923988104455</v>
+        <v>61.69960061686369</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>209.6331792059711</v>
+        <v>65.55895468369678</v>
       </c>
       <c r="C44">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D44">
-        <v>1.387598120695812</v>
+        <v>0.4339460130235355</v>
       </c>
       <c r="E44">
-        <v>1.812367566386608</v>
+        <v>0.5667849126029814</v>
       </c>
       <c r="F44">
-        <v>1.005655788258263</v>
+        <v>0.3145005122735977</v>
       </c>
       <c r="G44">
-        <v>21.59115688823121</v>
+        <v>6.75224065849505</v>
       </c>
       <c r="H44">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I44">
-        <v>235.5289196242459</v>
+        <v>73.65737535838592</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>309.1019836251309</v>
+        <v>96.66600971218556</v>
       </c>
       <c r="C45">
-        <v>0.005479486848923978</v>
+        <v>0.001713609607883518</v>
       </c>
       <c r="D45">
-        <v>3.006462594840925</v>
+        <v>0.9402163615509935</v>
       </c>
       <c r="E45">
-        <v>1.006870870214782</v>
+        <v>0.3148805070016564</v>
       </c>
       <c r="F45">
-        <v>1.85659530139987</v>
+        <v>0.5806163303512571</v>
       </c>
       <c r="G45">
-        <v>36.83197351521794</v>
+        <v>11.51852818213861</v>
       </c>
       <c r="H45">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I45">
-        <v>351.8886012957001</v>
+        <v>110.0467442865416</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>819.2806901621115</v>
+        <v>256.2150984066926</v>
       </c>
       <c r="C46">
-        <v>0.01095897369784796</v>
+        <v>0.003427219215767036</v>
       </c>
       <c r="D46">
-        <v>6.01292518968185</v>
+        <v>1.880432723101987</v>
       </c>
       <c r="E46">
-        <v>7.249470265546433</v>
+        <v>2.267139650411925</v>
       </c>
       <c r="F46">
-        <v>3.983944084253887</v>
+        <v>1.245905875545406</v>
       </c>
       <c r="G46">
-        <v>57.15306235120029</v>
+        <v>17.87357821366337</v>
       </c>
       <c r="H46">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I46">
-        <v>893.8495228305852</v>
+        <v>279.5351412560423</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1344.433195213804</v>
+        <v>420.4469695786065</v>
       </c>
       <c r="C47">
-        <v>0.0241097421352655</v>
+        <v>0.00753988227468748</v>
       </c>
       <c r="D47">
-        <v>12.0258503793637</v>
+        <v>3.760865446203974</v>
       </c>
       <c r="E47">
-        <v>17.72092731578017</v>
+        <v>5.541896923229151</v>
       </c>
       <c r="F47">
-        <v>7.039590517807842</v>
+        <v>2.201503585915184</v>
       </c>
       <c r="G47">
-        <v>76.20408313493373</v>
+        <v>23.83143761821784</v>
       </c>
       <c r="H47">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I47">
-        <v>1458.477823030433</v>
+        <v>456.1123476226201</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2259.97401868478</v>
+        <v>706.7656696257718</v>
       </c>
       <c r="C48">
-        <v>0.0241097421352655</v>
+        <v>0.00753988227468748</v>
       </c>
       <c r="D48">
-        <v>19.65764004319066</v>
+        <v>6.147568517833424</v>
       </c>
       <c r="E48">
-        <v>22.35253331876817</v>
+        <v>6.990347255436768</v>
       </c>
       <c r="F48">
-        <v>8.857506750428545</v>
+        <v>2.770023742717456</v>
       </c>
       <c r="G48">
-        <v>144.787757956374</v>
+        <v>45.27973147461386</v>
       </c>
       <c r="H48">
-        <v>2.060133453215465</v>
+        <v>0.6442691763455042</v>
       </c>
       <c r="I48">
-        <v>2457.713699948892</v>
+        <v>768.6051496749935</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2599.023599339336</v>
+        <v>812.7972442927714</v>
       </c>
       <c r="C49">
-        <v>0.02191794739569591</v>
+        <v>0.006854438431534072</v>
       </c>
       <c r="D49">
-        <v>18.03877556904554</v>
+        <v>5.641298169305963</v>
       </c>
       <c r="E49">
-        <v>12.4851987906633</v>
+        <v>3.904518286820537</v>
       </c>
       <c r="F49">
-        <v>7.34902306804115</v>
+        <v>2.29827297430706</v>
       </c>
       <c r="G49">
-        <v>83.82449144842708</v>
+        <v>26.21458138003959</v>
       </c>
       <c r="H49">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I49">
-        <v>2721.852308791563</v>
+        <v>851.2096837135546</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_VOC.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>657.2619691503273</v>
+        <v>2101.679577243538</v>
       </c>
       <c r="C2">
-        <v>0.009596213804147703</v>
+        <v>0.03068512635397427</v>
       </c>
       <c r="D2">
-        <v>6.581514530856954</v>
+        <v>21.04523816388647</v>
       </c>
       <c r="E2">
-        <v>3.337733374217557</v>
+        <v>10.67283122427669</v>
       </c>
       <c r="F2">
-        <v>3.108716602089022</v>
+        <v>9.940520676245134</v>
       </c>
       <c r="G2">
-        <v>64.74207219615843</v>
+        <v>207.0210925165698</v>
       </c>
       <c r="H2">
-        <v>0.3716937555839445</v>
+        <v>1.18853853070123</v>
       </c>
       <c r="I2">
-        <v>735.4132958230373</v>
+        <v>2351.578483481571</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>572.3029156316592</v>
+        <v>1830.012089905186</v>
       </c>
       <c r="C3">
-        <v>0.02193420298090903</v>
+        <v>0.07013743166622691</v>
       </c>
       <c r="D3">
-        <v>3.254595097676517</v>
+        <v>10.40698590521858</v>
       </c>
       <c r="E3">
-        <v>2.393091853212587</v>
+        <v>7.652218613632345</v>
       </c>
       <c r="F3">
-        <v>3.713525279538248</v>
+        <v>11.87447411520333</v>
       </c>
       <c r="G3">
-        <v>52.03197213310892</v>
+        <v>166.3789148446053</v>
       </c>
       <c r="H3">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I3">
-        <v>634.0401687863491</v>
+        <v>2027.42488754212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>611.103113301602</v>
+        <v>1954.080706169946</v>
       </c>
       <c r="C4">
-        <v>0.02124875913775563</v>
+        <v>0.06794563692665732</v>
       </c>
       <c r="D4">
-        <v>5.713622504809885</v>
+        <v>18.27004192249487</v>
       </c>
       <c r="E4">
-        <v>2.58202015741358</v>
+        <v>8.256341135761218</v>
       </c>
       <c r="F4">
-        <v>3.084524254991054</v>
+        <v>9.863162538686806</v>
       </c>
       <c r="G4">
-        <v>56.00387840281191</v>
+        <v>179.0795953670941</v>
       </c>
       <c r="H4">
-        <v>0.3964733392895409</v>
+        <v>1.267774432747979</v>
       </c>
       <c r="I4">
-        <v>678.9048807200556</v>
+        <v>2170.885567203658</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>563.6063196021889</v>
+        <v>1802.203606949293</v>
       </c>
       <c r="C5">
-        <v>0.01473704262779826</v>
+        <v>0.04712358690074621</v>
       </c>
       <c r="D5">
-        <v>4.4841088012432</v>
+        <v>14.33851391385671</v>
       </c>
       <c r="E5">
-        <v>2.644996258813912</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F5">
-        <v>2.600677313031672</v>
+        <v>8.315999787520246</v>
       </c>
       <c r="G5">
-        <v>53.2235440140198</v>
+        <v>170.1891190013519</v>
       </c>
       <c r="H5">
-        <v>0.4460325067007334</v>
+        <v>1.426246236841476</v>
       </c>
       <c r="I5">
-        <v>627.020415538626</v>
+        <v>2004.978324785568</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>582.6719339744888</v>
+        <v>1863.168358044906</v>
       </c>
       <c r="C6">
-        <v>0.01679337415725848</v>
+        <v>0.05369897111945499</v>
       </c>
       <c r="D6">
-        <v>6.870811872872643</v>
+        <v>21.97030357768368</v>
       </c>
       <c r="E6">
-        <v>2.644996258813912</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F6">
-        <v>3.15710129628496</v>
+        <v>10.09523695136179</v>
       </c>
       <c r="G6">
-        <v>46.86849398249509</v>
+        <v>149.8680301653696</v>
       </c>
       <c r="H6">
-        <v>0.4212529229951372</v>
+        <v>1.347010334794728</v>
       </c>
       <c r="I6">
-        <v>642.6513836821077</v>
+        <v>2054.960353355039</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>600.3996104961006</v>
+        <v>1919.85488099346</v>
       </c>
       <c r="C7">
-        <v>0.01576520839252836</v>
+        <v>0.05041127901010059</v>
       </c>
       <c r="D7">
-        <v>6.798487537368723</v>
+        <v>21.7390372242344</v>
       </c>
       <c r="E7">
-        <v>2.204163549011595</v>
+        <v>7.048096091503476</v>
       </c>
       <c r="F7">
-        <v>3.265966858225822</v>
+        <v>10.44334857037427</v>
       </c>
       <c r="G7">
-        <v>54.41511589493069</v>
+        <v>173.9993231580987</v>
       </c>
       <c r="H7">
-        <v>0.5203712578175226</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I7">
-        <v>667.6194808018474</v>
+        <v>2134.799051259663</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>636.8584169273402</v>
+        <v>2036.436598000862</v>
       </c>
       <c r="C8">
-        <v>0.01645065223568178</v>
+        <v>0.05260307374967019</v>
       </c>
       <c r="D8">
-        <v>6.943136208376568</v>
+        <v>22.20156993113299</v>
       </c>
       <c r="E8">
-        <v>1.889283042009937</v>
+        <v>6.041225221288696</v>
       </c>
       <c r="F8">
-        <v>3.302255378872775</v>
+        <v>10.55938577671176</v>
       </c>
       <c r="G8">
-        <v>30.98086890368318</v>
+        <v>99.0653080754138</v>
       </c>
       <c r="H8">
-        <v>0.5699304252287151</v>
+        <v>1.822425747075219</v>
       </c>
       <c r="I8">
-        <v>680.560341537747</v>
+        <v>2176.179115826234</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>745.231382833043</v>
+        <v>2382.973077912774</v>
       </c>
       <c r="C9">
-        <v>0.01405159878464485</v>
+        <v>0.04493179216117662</v>
       </c>
       <c r="D9">
-        <v>8.172649911943251</v>
+        <v>26.13309793977112</v>
       </c>
       <c r="E9">
-        <v>2.644996258813912</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F9">
-        <v>3.145005122735975</v>
+        <v>10.05655788258263</v>
       </c>
       <c r="G9">
-        <v>30.98086890368318</v>
+        <v>99.0653080754138</v>
       </c>
       <c r="H9">
-        <v>0.4460325067007334</v>
+        <v>1.426246236841476</v>
       </c>
       <c r="I9">
-        <v>790.6349871357045</v>
+        <v>2528.156935149348</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>843.9042993212601</v>
+        <v>2698.492403758497</v>
       </c>
       <c r="C10">
-        <v>0.01336615494149144</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D10">
-        <v>5.641298169305963</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E10">
-        <v>4.471303199423519</v>
+        <v>14.29756635704991</v>
       </c>
       <c r="F10">
-        <v>2.128926544621276</v>
+        <v>6.807516105132855</v>
       </c>
       <c r="G10">
-        <v>17.07919695972278</v>
+        <v>54.61292624670247</v>
       </c>
       <c r="H10">
-        <v>0.7186079274622929</v>
+        <v>2.297841159355712</v>
       </c>
       <c r="I10">
-        <v>873.9569982767375</v>
+        <v>2794.589769193205</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>850.5939885746982</v>
+        <v>2719.883544493799</v>
       </c>
       <c r="C11">
-        <v>0.01302343301991474</v>
+        <v>0.04164410005182222</v>
       </c>
       <c r="D11">
-        <v>4.990379149770659</v>
+        <v>15.95737838800183</v>
       </c>
       <c r="E11">
-        <v>4.471303199423519</v>
+        <v>14.29756635704991</v>
       </c>
       <c r="F11">
-        <v>1.729752817504786</v>
+        <v>5.531106835420444</v>
       </c>
       <c r="G11">
-        <v>3.574715642732674</v>
+        <v>11.43061247024005</v>
       </c>
       <c r="H11">
-        <v>0.2973550044671557</v>
+        <v>0.9508308245609839</v>
       </c>
       <c r="I11">
-        <v>865.670517821617</v>
+        <v>2768.092683469124</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>639.1998081660437</v>
+        <v>2043.923497258218</v>
       </c>
       <c r="C12">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D12">
-        <v>3.543892439692207</v>
+        <v>11.33205131901579</v>
       </c>
       <c r="E12">
-        <v>4.093446591021531</v>
+        <v>13.08932131279217</v>
       </c>
       <c r="F12">
-        <v>1.173328834251499</v>
+        <v>3.751869671578905</v>
       </c>
       <c r="G12">
-        <v>7.149431285465348</v>
+        <v>22.86122494048011</v>
       </c>
       <c r="H12">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I12">
-        <v>655.2404150621794</v>
+        <v>2095.21539836088</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>523.1336996188866</v>
+        <v>1672.787205500709</v>
       </c>
       <c r="C13">
-        <v>0.009253491882571</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D13">
-        <v>2.386703071629445</v>
+        <v>7.631789663826963</v>
       </c>
       <c r="E13">
-        <v>4.597255402224185</v>
+        <v>14.70031470513583</v>
       </c>
       <c r="F13">
-        <v>0.7136742393900868</v>
+        <v>2.282065057970673</v>
       </c>
       <c r="G13">
-        <v>6.75224065849505</v>
+        <v>21.59115688823121</v>
       </c>
       <c r="H13">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I13">
-        <v>537.6671652336246</v>
+        <v>1719.259828750998</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>382.6502252966791</v>
+        <v>1223.573250059341</v>
       </c>
       <c r="C14">
-        <v>0.005140828823650554</v>
+        <v>0.01643846054677193</v>
       </c>
       <c r="D14">
-        <v>2.025081394109832</v>
+        <v>6.475457896580451</v>
       </c>
       <c r="E14">
-        <v>3.46368557701822</v>
+        <v>11.07557957236261</v>
       </c>
       <c r="F14">
-        <v>0.6410971980961798</v>
+        <v>2.04999064529569</v>
       </c>
       <c r="G14">
-        <v>3.574715642732674</v>
+        <v>11.43061247024005</v>
       </c>
       <c r="H14">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I14">
-        <v>392.4095051048708</v>
+        <v>1254.779800908461</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>268.9255079882255</v>
+        <v>859.9238575591878</v>
       </c>
       <c r="C15">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D15">
-        <v>1.012540697054916</v>
+        <v>3.237728948290226</v>
       </c>
       <c r="E15">
-        <v>1.763330839209275</v>
+        <v>5.638476873202784</v>
       </c>
       <c r="F15">
-        <v>0.3507890329205511</v>
+        <v>1.121692994595754</v>
       </c>
       <c r="G15">
-        <v>7.546621912435642</v>
+        <v>24.13129299272901</v>
       </c>
       <c r="H15">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I15">
-        <v>279.6545186318455</v>
+        <v>894.2312473247551</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>160.2180576198508</v>
+        <v>512.3178206105111</v>
       </c>
       <c r="C16">
-        <v>0.007197160353110777</v>
+        <v>0.02301384476548071</v>
       </c>
       <c r="D16">
-        <v>0.8678920260470709</v>
+        <v>2.775196241391623</v>
       </c>
       <c r="E16">
-        <v>0.7557132168039751</v>
+        <v>2.416490088515477</v>
       </c>
       <c r="F16">
-        <v>0.3145005122735977</v>
+        <v>1.005655788258263</v>
       </c>
       <c r="G16">
-        <v>4.766287523643563</v>
+        <v>15.24081662698674</v>
       </c>
       <c r="H16">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I16">
-        <v>166.9792072263833</v>
+        <v>533.9374650045224</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>118.0730153231886</v>
+        <v>377.5536339781008</v>
       </c>
       <c r="C17">
-        <v>0.01130982341203122</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D17">
-        <v>0.07232433550392259</v>
+        <v>0.2312663534493019</v>
       </c>
       <c r="E17">
-        <v>0.3778566084019875</v>
+        <v>1.208245044257738</v>
       </c>
       <c r="F17">
-        <v>0.4959431155083653</v>
+        <v>1.585841819945722</v>
       </c>
       <c r="G17">
-        <v>6.35505003152475</v>
+        <v>20.32108883598231</v>
       </c>
       <c r="I17">
-        <v>125.3854992375396</v>
+        <v>400.9362406449388</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>68.90379931041603</v>
+        <v>220.3287495736228</v>
       </c>
       <c r="C18">
-        <v>0.00822532611784089</v>
+        <v>0.02630153687483509</v>
       </c>
       <c r="D18">
-        <v>0.07232433550392259</v>
+        <v>0.2312663534493019</v>
       </c>
       <c r="E18">
-        <v>0.251904405601325</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F18">
-        <v>0.3870775535675048</v>
+        <v>1.237730200933247</v>
       </c>
       <c r="G18">
-        <v>5.95785940455446</v>
+        <v>19.05102078373343</v>
       </c>
       <c r="H18">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I18">
-        <v>75.60596991946667</v>
+        <v>241.7598010468321</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>52.84854510216375</v>
+        <v>168.9900118088951</v>
       </c>
       <c r="C19">
-        <v>0.01165254533360792</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D19">
-        <v>0.5785946840313807</v>
+        <v>1.850130827594415</v>
       </c>
       <c r="E19">
-        <v>0.06297610140033126</v>
+        <v>0.2013741740429565</v>
       </c>
       <c r="F19">
-        <v>0.254019644528675</v>
+        <v>0.8122604443624428</v>
       </c>
       <c r="G19">
-        <v>7.943812539405945</v>
+        <v>25.4013610449779</v>
       </c>
       <c r="I19">
-        <v>61.69960061686369</v>
+        <v>197.2923988104455</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>65.55895468369678</v>
+        <v>209.6331792059711</v>
       </c>
       <c r="C20">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D20">
-        <v>0.4339460130235355</v>
+        <v>1.387598120695812</v>
       </c>
       <c r="E20">
-        <v>0.5667849126029814</v>
+        <v>1.812367566386608</v>
       </c>
       <c r="F20">
-        <v>0.3145005122735977</v>
+        <v>1.005655788258263</v>
       </c>
       <c r="G20">
-        <v>6.75224065849505</v>
+        <v>21.59115688823121</v>
       </c>
       <c r="H20">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I20">
-        <v>73.65737535838592</v>
+        <v>235.5289196242459</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>96.66600971218556</v>
+        <v>309.1019836251309</v>
       </c>
       <c r="C21">
-        <v>0.001713609607883518</v>
+        <v>0.005479486848923978</v>
       </c>
       <c r="D21">
-        <v>0.9402163615509935</v>
+        <v>3.006462594840925</v>
       </c>
       <c r="E21">
-        <v>0.3148805070016564</v>
+        <v>1.006870870214782</v>
       </c>
       <c r="F21">
-        <v>0.5806163303512571</v>
+        <v>1.85659530139987</v>
       </c>
       <c r="G21">
-        <v>11.51852818213861</v>
+        <v>36.83197351521794</v>
       </c>
       <c r="H21">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I21">
-        <v>110.0467442865416</v>
+        <v>351.8886012957001</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>256.2150984066926</v>
+        <v>819.2806901621115</v>
       </c>
       <c r="C22">
-        <v>0.003427219215767036</v>
+        <v>0.01095897369784796</v>
       </c>
       <c r="D22">
-        <v>1.880432723101987</v>
+        <v>6.01292518968185</v>
       </c>
       <c r="E22">
-        <v>2.267139650411925</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F22">
-        <v>1.245905875545406</v>
+        <v>3.983944084253887</v>
       </c>
       <c r="G22">
-        <v>17.87357821366337</v>
+        <v>57.15306235120029</v>
       </c>
       <c r="H22">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I22">
-        <v>279.5351412560423</v>
+        <v>893.8495228305852</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>420.4469695786065</v>
+        <v>1344.433195213804</v>
       </c>
       <c r="C23">
-        <v>0.00753988227468748</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D23">
-        <v>3.760865446203974</v>
+        <v>12.0258503793637</v>
       </c>
       <c r="E23">
-        <v>5.541896923229151</v>
+        <v>17.72092731578017</v>
       </c>
       <c r="F23">
-        <v>2.201503585915184</v>
+        <v>7.039590517807842</v>
       </c>
       <c r="G23">
-        <v>23.83143761821784</v>
+        <v>76.20408313493373</v>
       </c>
       <c r="H23">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I23">
-        <v>456.1123476226201</v>
+        <v>1458.477823030433</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>706.7656696257718</v>
+        <v>2259.97401868478</v>
       </c>
       <c r="C24">
-        <v>0.00753988227468748</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D24">
-        <v>6.147568517833424</v>
+        <v>19.65764004319066</v>
       </c>
       <c r="E24">
-        <v>6.990347255436768</v>
+        <v>22.35253331876817</v>
       </c>
       <c r="F24">
-        <v>2.770023742717456</v>
+        <v>8.857506750428545</v>
       </c>
       <c r="G24">
-        <v>45.27973147461386</v>
+        <v>144.787757956374</v>
       </c>
       <c r="H24">
-        <v>0.6442691763455042</v>
+        <v>2.060133453215465</v>
       </c>
       <c r="I24">
-        <v>768.6051496749935</v>
+        <v>2457.713699948892</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>812.7972442927714</v>
+        <v>2599.023599339336</v>
       </c>
       <c r="C25">
-        <v>0.006854438431534072</v>
+        <v>0.02191794739569591</v>
       </c>
       <c r="D25">
-        <v>5.641298169305963</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E25">
-        <v>3.904518286820537</v>
+        <v>12.4851987906633</v>
       </c>
       <c r="F25">
-        <v>2.29827297430706</v>
+        <v>7.34902306804115</v>
       </c>
       <c r="G25">
-        <v>26.21458138003959</v>
+        <v>83.82449144842708</v>
       </c>
       <c r="H25">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I25">
-        <v>851.2096837135546</v>
+        <v>2721.852308791563</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>657.2619691503273</v>
+        <v>2101.679577243538</v>
       </c>
       <c r="C26">
-        <v>0.009596213804147703</v>
+        <v>0.03068512635397427</v>
       </c>
       <c r="D26">
-        <v>6.581514530856954</v>
+        <v>21.04523816388647</v>
       </c>
       <c r="E26">
-        <v>3.337733374217557</v>
+        <v>10.67283122427669</v>
       </c>
       <c r="F26">
-        <v>3.108716602089022</v>
+        <v>9.940520676245134</v>
       </c>
       <c r="G26">
-        <v>64.74207219615843</v>
+        <v>207.0210925165698</v>
       </c>
       <c r="H26">
-        <v>0.3716937555839445</v>
+        <v>1.18853853070123</v>
       </c>
       <c r="I26">
-        <v>735.4132958230373</v>
+        <v>2351.578483481571</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>565.2787419155488</v>
+        <v>1807.551392133119</v>
       </c>
       <c r="C27">
-        <v>0.0188497056867187</v>
+        <v>0.06027435533816374</v>
       </c>
       <c r="D27">
-        <v>5.930595511321649</v>
+        <v>18.96384098284275</v>
       </c>
       <c r="E27">
-        <v>2.58202015741358</v>
+        <v>8.256341135761218</v>
       </c>
       <c r="F27">
-        <v>3.640948238244342</v>
+        <v>11.64239970252835</v>
       </c>
       <c r="G27">
-        <v>58.38702216463367</v>
+        <v>186.7000036805874</v>
       </c>
       <c r="H27">
-        <v>0.5451508415231188</v>
+        <v>1.743189845028472</v>
       </c>
       <c r="I27">
-        <v>636.3833285343719</v>
+        <v>2034.917441835205</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>595.3823435560217</v>
+        <v>1903.811525441983</v>
       </c>
       <c r="C28">
-        <v>0.01747881800041188</v>
+        <v>0.05589076585902457</v>
       </c>
       <c r="D28">
-        <v>5.641298169305963</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E28">
-        <v>3.652613881219215</v>
+        <v>11.67970209449147</v>
       </c>
       <c r="F28">
-        <v>2.999851040148161</v>
+        <v>9.592409057232659</v>
       </c>
       <c r="G28">
-        <v>67.91959721192082</v>
+        <v>217.1816369345611</v>
       </c>
       <c r="H28">
-        <v>0.5699304252287151</v>
+        <v>1.822425747075219</v>
       </c>
       <c r="I28">
-        <v>676.183113101845</v>
+        <v>2162.182365610248</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>593.3754367799902</v>
+        <v>1897.394183221392</v>
       </c>
       <c r="C29">
-        <v>0.01610793031410507</v>
+        <v>0.0515071763798854</v>
       </c>
       <c r="D29">
-        <v>4.773406143258891</v>
+        <v>15.26357932765393</v>
       </c>
       <c r="E29">
-        <v>2.456067954612918</v>
+        <v>7.853592787675304</v>
       </c>
       <c r="F29">
-        <v>2.745831395619486</v>
+        <v>8.780148612870217</v>
       </c>
       <c r="G29">
-        <v>50.840400252198</v>
+        <v>162.5687106878584</v>
       </c>
       <c r="H29">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I29">
-        <v>654.5541646278718</v>
+        <v>2093.021024442484</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>627.8273364351984</v>
+        <v>2007.558558008203</v>
       </c>
       <c r="C30">
-        <v>0.01679337415725848</v>
+        <v>0.05369897111945499</v>
       </c>
       <c r="D30">
-        <v>4.628757472251046</v>
+        <v>14.80104662075532</v>
       </c>
       <c r="E30">
-        <v>2.896900664415238</v>
+        <v>9.263212005976001</v>
       </c>
       <c r="F30">
-        <v>3.423217114362619</v>
+        <v>10.9461764645034</v>
       </c>
       <c r="G30">
-        <v>42.10220645885152</v>
+        <v>134.6272135383828</v>
       </c>
       <c r="H30">
-        <v>0.5203712578175226</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I30">
-        <v>681.4155827770536</v>
+        <v>2178.913859551922</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>605.4168774361792</v>
+        <v>1935.898236544938</v>
       </c>
       <c r="C31">
-        <v>0.01336615494149144</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D31">
-        <v>6.581514530856954</v>
+        <v>21.04523816388647</v>
       </c>
       <c r="E31">
-        <v>2.644996258813912</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F31">
-        <v>3.241774511127852</v>
+        <v>10.36599043281594</v>
       </c>
       <c r="G31">
-        <v>40.116253324</v>
+        <v>128.2768732771384</v>
       </c>
       <c r="H31">
-        <v>0.5947100089343114</v>
+        <v>1.901661649121968</v>
       </c>
       <c r="I31">
-        <v>658.6094922248536</v>
+        <v>2105.988455375127</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>641.2067149420748</v>
+        <v>2050.340839478809</v>
       </c>
       <c r="C32">
-        <v>0.01542248647095167</v>
+        <v>0.04931538164031581</v>
       </c>
       <c r="D32">
-        <v>6.509190195353034</v>
+        <v>20.81397181043716</v>
       </c>
       <c r="E32">
-        <v>2.770948461614576</v>
+        <v>8.860463657890085</v>
       </c>
       <c r="F32">
-        <v>3.15710129628496</v>
+        <v>10.09523695136179</v>
       </c>
       <c r="G32">
-        <v>39.71906269702969</v>
+        <v>127.0068052248895</v>
       </c>
       <c r="H32">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I32">
-        <v>693.7253542507063</v>
+        <v>2218.275935133682</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>745.231382833043</v>
+        <v>2382.973077912774</v>
       </c>
       <c r="C33">
-        <v>0.01405159878464485</v>
+        <v>0.04493179216117662</v>
       </c>
       <c r="D33">
-        <v>8.172649911943251</v>
+        <v>26.13309793977112</v>
       </c>
       <c r="E33">
-        <v>2.644996258813912</v>
+        <v>8.457715309804174</v>
       </c>
       <c r="F33">
-        <v>3.145005122735975</v>
+        <v>10.05655788258263</v>
       </c>
       <c r="G33">
-        <v>30.98086890368318</v>
+        <v>99.0653080754138</v>
       </c>
       <c r="H33">
-        <v>0.4460325067007334</v>
+        <v>1.426246236841476</v>
       </c>
       <c r="I33">
-        <v>790.6349871357045</v>
+        <v>2528.156935149348</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>843.9042993212601</v>
+        <v>2698.492403758497</v>
       </c>
       <c r="C34">
-        <v>0.01336615494149144</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D34">
-        <v>5.641298169305963</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E34">
-        <v>4.471303199423519</v>
+        <v>14.29756635704991</v>
       </c>
       <c r="F34">
-        <v>2.128926544621276</v>
+        <v>6.807516105132855</v>
       </c>
       <c r="G34">
-        <v>17.07919695972278</v>
+        <v>54.61292624670247</v>
       </c>
       <c r="H34">
-        <v>0.7186079274622929</v>
+        <v>2.297841159355712</v>
       </c>
       <c r="I34">
-        <v>873.9569982767375</v>
+        <v>2794.589769193205</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>850.5939885746982</v>
+        <v>2719.883544493799</v>
       </c>
       <c r="C35">
-        <v>0.01302343301991474</v>
+        <v>0.04164410005182222</v>
       </c>
       <c r="D35">
-        <v>4.990379149770659</v>
+        <v>15.95737838800183</v>
       </c>
       <c r="E35">
-        <v>4.471303199423519</v>
+        <v>14.29756635704991</v>
       </c>
       <c r="F35">
-        <v>1.729752817504786</v>
+        <v>5.531106835420444</v>
       </c>
       <c r="G35">
-        <v>3.574715642732674</v>
+        <v>11.43061247024005</v>
       </c>
       <c r="H35">
-        <v>0.2973550044671557</v>
+        <v>0.9508308245609839</v>
       </c>
       <c r="I35">
-        <v>865.670517821617</v>
+        <v>2768.092683469124</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>639.1998081660437</v>
+        <v>2043.923497258218</v>
       </c>
       <c r="C36">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D36">
-        <v>3.543892439692207</v>
+        <v>11.33205131901579</v>
       </c>
       <c r="E36">
-        <v>4.093446591021531</v>
+        <v>13.08932131279217</v>
       </c>
       <c r="F36">
-        <v>1.173328834251499</v>
+        <v>3.751869671578905</v>
       </c>
       <c r="G36">
-        <v>7.149431285465348</v>
+        <v>22.86122494048011</v>
       </c>
       <c r="H36">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I36">
-        <v>655.2404150621794</v>
+        <v>2095.21539836088</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>523.1336996188866</v>
+        <v>1672.787205500709</v>
       </c>
       <c r="C37">
-        <v>0.009253491882571</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D37">
-        <v>2.386703071629445</v>
+        <v>7.631789663826963</v>
       </c>
       <c r="E37">
-        <v>4.597255402224185</v>
+        <v>14.70031470513583</v>
       </c>
       <c r="F37">
-        <v>0.7136742393900868</v>
+        <v>2.282065057970673</v>
       </c>
       <c r="G37">
-        <v>6.75224065849505</v>
+        <v>21.59115688823121</v>
       </c>
       <c r="H37">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I37">
-        <v>537.6671652336246</v>
+        <v>1719.259828750998</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>382.6502252966791</v>
+        <v>1223.573250059341</v>
       </c>
       <c r="C38">
-        <v>0.005140828823650554</v>
+        <v>0.01643846054677193</v>
       </c>
       <c r="D38">
-        <v>2.025081394109832</v>
+        <v>6.475457896580451</v>
       </c>
       <c r="E38">
-        <v>3.46368557701822</v>
+        <v>11.07557957236261</v>
       </c>
       <c r="F38">
-        <v>0.6410971980961798</v>
+        <v>2.04999064529569</v>
       </c>
       <c r="G38">
-        <v>3.574715642732674</v>
+        <v>11.43061247024005</v>
       </c>
       <c r="H38">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I38">
-        <v>392.4095051048708</v>
+        <v>1254.779800908461</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>268.9255079882255</v>
+        <v>859.9238575591878</v>
       </c>
       <c r="C39">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D39">
-        <v>1.012540697054916</v>
+        <v>3.237728948290226</v>
       </c>
       <c r="E39">
-        <v>1.763330839209275</v>
+        <v>5.638476873202784</v>
       </c>
       <c r="F39">
-        <v>0.3507890329205511</v>
+        <v>1.121692994595754</v>
       </c>
       <c r="G39">
-        <v>7.546621912435642</v>
+        <v>24.13129299272901</v>
       </c>
       <c r="H39">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I39">
-        <v>279.6545186318455</v>
+        <v>894.2312473247551</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>160.2180576198508</v>
+        <v>512.3178206105111</v>
       </c>
       <c r="C40">
-        <v>0.007197160353110777</v>
+        <v>0.02301384476548071</v>
       </c>
       <c r="D40">
-        <v>0.8678920260470709</v>
+        <v>2.775196241391623</v>
       </c>
       <c r="E40">
-        <v>0.7557132168039751</v>
+        <v>2.416490088515477</v>
       </c>
       <c r="F40">
-        <v>0.3145005122735977</v>
+        <v>1.005655788258263</v>
       </c>
       <c r="G40">
-        <v>4.766287523643563</v>
+        <v>15.24081662698674</v>
       </c>
       <c r="H40">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I40">
-        <v>166.9792072263833</v>
+        <v>533.9374650045224</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>118.0730153231886</v>
+        <v>377.5536339781008</v>
       </c>
       <c r="C41">
-        <v>0.01130982341203122</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D41">
-        <v>0.07232433550392259</v>
+        <v>0.2312663534493019</v>
       </c>
       <c r="E41">
-        <v>0.3778566084019875</v>
+        <v>1.208245044257738</v>
       </c>
       <c r="F41">
-        <v>0.4959431155083653</v>
+        <v>1.585841819945722</v>
       </c>
       <c r="G41">
-        <v>6.35505003152475</v>
+        <v>20.32108883598231</v>
       </c>
       <c r="I41">
-        <v>125.3854992375396</v>
+        <v>400.9362406449388</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>68.90379931041603</v>
+        <v>220.3287495736228</v>
       </c>
       <c r="C42">
-        <v>0.00822532611784089</v>
+        <v>0.02630153687483509</v>
       </c>
       <c r="D42">
-        <v>0.07232433550392259</v>
+        <v>0.2312663534493019</v>
       </c>
       <c r="E42">
-        <v>0.251904405601325</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F42">
-        <v>0.3870775535675048</v>
+        <v>1.237730200933247</v>
       </c>
       <c r="G42">
-        <v>5.95785940455446</v>
+        <v>19.05102078373343</v>
       </c>
       <c r="H42">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I42">
-        <v>75.60596991946667</v>
+        <v>241.7598010468321</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>52.84854510216375</v>
+        <v>168.9900118088951</v>
       </c>
       <c r="C43">
-        <v>0.01165254533360792</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D43">
-        <v>0.5785946840313807</v>
+        <v>1.850130827594415</v>
       </c>
       <c r="E43">
-        <v>0.06297610140033126</v>
+        <v>0.2013741740429565</v>
       </c>
       <c r="F43">
-        <v>0.254019644528675</v>
+        <v>0.8122604443624428</v>
       </c>
       <c r="G43">
-        <v>7.943812539405945</v>
+        <v>25.4013610449779</v>
       </c>
       <c r="I43">
-        <v>61.69960061686369</v>
+        <v>197.2923988104455</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>65.55895468369678</v>
+        <v>209.6331792059711</v>
       </c>
       <c r="C44">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D44">
-        <v>0.4339460130235355</v>
+        <v>1.387598120695812</v>
       </c>
       <c r="E44">
-        <v>0.5667849126029814</v>
+        <v>1.812367566386608</v>
       </c>
       <c r="F44">
-        <v>0.3145005122735977</v>
+        <v>1.005655788258263</v>
       </c>
       <c r="G44">
-        <v>6.75224065849505</v>
+        <v>21.59115688823121</v>
       </c>
       <c r="H44">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I44">
-        <v>73.65737535838592</v>
+        <v>235.5289196242459</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>96.66600971218556</v>
+        <v>309.1019836251309</v>
       </c>
       <c r="C45">
-        <v>0.001713609607883518</v>
+        <v>0.005479486848923978</v>
       </c>
       <c r="D45">
-        <v>0.9402163615509935</v>
+        <v>3.006462594840925</v>
       </c>
       <c r="E45">
-        <v>0.3148805070016564</v>
+        <v>1.006870870214782</v>
       </c>
       <c r="F45">
-        <v>0.5806163303512571</v>
+        <v>1.85659530139987</v>
       </c>
       <c r="G45">
-        <v>11.51852818213861</v>
+        <v>36.83197351521794</v>
       </c>
       <c r="H45">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I45">
-        <v>110.0467442865416</v>
+        <v>351.8886012957001</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>256.2150984066926</v>
+        <v>819.2806901621115</v>
       </c>
       <c r="C46">
-        <v>0.003427219215767036</v>
+        <v>0.01095897369784796</v>
       </c>
       <c r="D46">
-        <v>1.880432723101987</v>
+        <v>6.01292518968185</v>
       </c>
       <c r="E46">
-        <v>2.267139650411925</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F46">
-        <v>1.245905875545406</v>
+        <v>3.983944084253887</v>
       </c>
       <c r="G46">
-        <v>17.87357821366337</v>
+        <v>57.15306235120029</v>
       </c>
       <c r="H46">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I46">
-        <v>279.5351412560423</v>
+        <v>893.8495228305852</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>420.4469695786065</v>
+        <v>1344.433195213804</v>
       </c>
       <c r="C47">
-        <v>0.00753988227468748</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D47">
-        <v>3.760865446203974</v>
+        <v>12.0258503793637</v>
       </c>
       <c r="E47">
-        <v>5.541896923229151</v>
+        <v>17.72092731578017</v>
       </c>
       <c r="F47">
-        <v>2.201503585915184</v>
+        <v>7.039590517807842</v>
       </c>
       <c r="G47">
-        <v>23.83143761821784</v>
+        <v>76.20408313493373</v>
       </c>
       <c r="H47">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I47">
-        <v>456.1123476226201</v>
+        <v>1458.477823030433</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>706.7656696257718</v>
+        <v>2259.97401868478</v>
       </c>
       <c r="C48">
-        <v>0.00753988227468748</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D48">
-        <v>6.147568517833424</v>
+        <v>19.65764004319066</v>
       </c>
       <c r="E48">
-        <v>6.990347255436768</v>
+        <v>22.35253331876817</v>
       </c>
       <c r="F48">
-        <v>2.770023742717456</v>
+        <v>8.857506750428545</v>
       </c>
       <c r="G48">
-        <v>45.27973147461386</v>
+        <v>144.787757956374</v>
       </c>
       <c r="H48">
-        <v>0.6442691763455042</v>
+        <v>2.060133453215465</v>
       </c>
       <c r="I48">
-        <v>768.6051496749935</v>
+        <v>2457.713699948892</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>812.7972442927714</v>
+        <v>2599.023599339336</v>
       </c>
       <c r="C49">
-        <v>0.006854438431534072</v>
+        <v>0.02191794739569591</v>
       </c>
       <c r="D49">
-        <v>5.641298169305963</v>
+        <v>18.03877556904554</v>
       </c>
       <c r="E49">
-        <v>3.904518286820537</v>
+        <v>12.4851987906633</v>
       </c>
       <c r="F49">
-        <v>2.29827297430706</v>
+        <v>7.34902306804115</v>
       </c>
       <c r="G49">
-        <v>26.21458138003959</v>
+        <v>83.82449144842708</v>
       </c>
       <c r="H49">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I49">
-        <v>851.2096837135546</v>
+        <v>2721.852308791563</v>
       </c>
     </row>
   </sheetData>
